--- a/data/raw/election/voters-age-sex-education/2023/Erzurum.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Erzurum.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:38:43-11843579610" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="49">
   <si>
     <t>Erzurum</t>
   </si>
@@ -161,6 +160,12 @@
   </si>
   <si>
     <t>Yakutiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -694,7 +699,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -708,16 +713,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,10 +1056,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N524"/>
+  <dimension ref="A1:N526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="A525" sqref="A525:A526"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,24 +1075,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1179,7 +1193,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="5">
-        <v>1.2430000000000001</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1218,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="M7" s="5">
-        <v>1.296</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,7 +1272,7 @@
       <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>750</v>
       </c>
     </row>
@@ -1297,7 +1311,7 @@
       <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>780</v>
       </c>
     </row>
@@ -1338,7 +1352,7 @@
       <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>653</v>
       </c>
     </row>
@@ -1377,7 +1391,7 @@
       <c r="L11" s="4">
         <v>4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>619</v>
       </c>
     </row>
@@ -1418,7 +1432,7 @@
       <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>713</v>
       </c>
     </row>
@@ -1457,7 +1471,7 @@
       <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>682</v>
       </c>
     </row>
@@ -1498,7 +1512,7 @@
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>764</v>
       </c>
     </row>
@@ -1537,7 +1551,7 @@
       <c r="L15" s="4">
         <v>2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>724</v>
       </c>
     </row>
@@ -1578,7 +1592,7 @@
       <c r="L16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>708</v>
       </c>
     </row>
@@ -1617,7 +1631,7 @@
       <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>613</v>
       </c>
     </row>
@@ -1658,7 +1672,7 @@
       <c r="L18" s="4">
         <v>4</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>638</v>
       </c>
     </row>
@@ -1697,7 +1711,7 @@
       <c r="L19" s="4">
         <v>2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>581</v>
       </c>
     </row>
@@ -1738,7 +1752,7 @@
       <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>552</v>
       </c>
     </row>
@@ -1777,7 +1791,7 @@
       <c r="L21" s="4">
         <v>6</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>559</v>
       </c>
     </row>
@@ -1818,7 +1832,7 @@
       <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>403</v>
       </c>
     </row>
@@ -1857,7 +1871,7 @@
       <c r="L23" s="4">
         <v>2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>449</v>
       </c>
     </row>
@@ -1898,7 +1912,7 @@
       <c r="L24" s="4">
         <v>2</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>365</v>
       </c>
     </row>
@@ -1937,7 +1951,7 @@
       <c r="L25" s="4">
         <v>9</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>449</v>
       </c>
     </row>
@@ -1978,7 +1992,7 @@
       <c r="L26" s="4">
         <v>1</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>303</v>
       </c>
     </row>
@@ -2017,7 +2031,7 @@
       <c r="L27" s="4">
         <v>5</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>383</v>
       </c>
     </row>
@@ -2058,7 +2072,7 @@
       <c r="L28" s="4">
         <v>9</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>437</v>
       </c>
     </row>
@@ -2097,7 +2111,7 @@
       <c r="L29" s="4">
         <v>9</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>561</v>
       </c>
     </row>
@@ -2105,39 +2119,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>763</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>717</v>
       </c>
       <c r="E30" s="5">
-        <v>4.0389999999999997</v>
+        <v>4039</v>
       </c>
       <c r="F30" s="5">
-        <v>1.2549999999999999</v>
+        <v>1255</v>
       </c>
       <c r="G30" s="5">
-        <v>2.4609999999999999</v>
+        <v>2461</v>
       </c>
       <c r="H30" s="5">
-        <v>3.9630000000000001</v>
+        <v>3963</v>
       </c>
       <c r="I30" s="5">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="J30" s="5">
+        <v>1795</v>
+      </c>
+      <c r="J30" s="6">
         <v>146</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>7</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>79</v>
       </c>
       <c r="M30" s="5">
-        <v>15.225</v>
+        <v>15225</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2201,8 +2215,8 @@
       <c r="G32" s="4">
         <v>739</v>
       </c>
-      <c r="H32" s="4">
-        <v>2.3769999999999998</v>
+      <c r="H32" s="9">
+        <v>2377</v>
       </c>
       <c r="I32" s="4">
         <v>360</v>
@@ -2217,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="M32" s="5">
-        <v>3.5129999999999999</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2240,8 +2254,8 @@
       <c r="G33" s="4">
         <v>841</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.173</v>
+      <c r="H33" s="9">
+        <v>2173</v>
       </c>
       <c r="I33" s="4">
         <v>637</v>
@@ -2256,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="5">
-        <v>3.6920000000000002</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2297,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="M34" s="5">
-        <v>2.34</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2323,8 +2337,8 @@
       <c r="H35" s="4">
         <v>608</v>
       </c>
-      <c r="I35" s="4">
-        <v>1.1559999999999999</v>
+      <c r="I35" s="9">
+        <v>1156</v>
       </c>
       <c r="J35" s="4">
         <v>158</v>
@@ -2336,7 +2350,7 @@
         <v>7</v>
       </c>
       <c r="M35" s="5">
-        <v>2.641</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2377,7 +2391,7 @@
         <v>7</v>
       </c>
       <c r="M36" s="5">
-        <v>2.2559999999999998</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2416,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="M37" s="5">
-        <v>2.319</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2457,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="M38" s="5">
-        <v>2.3069999999999999</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2496,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="M39" s="5">
-        <v>2.3540000000000001</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2537,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="5">
-        <v>2.2509999999999999</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2576,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="M41" s="5">
-        <v>2.254</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2617,7 +2631,7 @@
         <v>8</v>
       </c>
       <c r="M42" s="5">
-        <v>1.9390000000000001</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2656,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="M43" s="5">
-        <v>1.877</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2697,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="M44" s="5">
-        <v>1.679</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2736,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="M45" s="5">
-        <v>1.601</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2777,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="M46" s="5">
-        <v>1.4059999999999999</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2816,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="M47" s="5">
-        <v>1.429</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2857,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="5">
-        <v>1.077</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2896,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="M49" s="5">
-        <v>1.1819999999999999</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,7 +2950,7 @@
       <c r="L50" s="4">
         <v>5</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>939</v>
       </c>
     </row>
@@ -2976,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="M51" s="5">
-        <v>1.0589999999999999</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3016,7 +3030,7 @@
       <c r="L52" s="4">
         <v>3</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>657</v>
       </c>
     </row>
@@ -3055,7 +3069,7 @@
       <c r="L53" s="4">
         <v>12</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>751</v>
       </c>
     </row>
@@ -3096,7 +3110,7 @@
       <c r="L54" s="4">
         <v>11</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>789</v>
       </c>
     </row>
@@ -3136,46 +3150,46 @@
         <v>15</v>
       </c>
       <c r="M55" s="5">
-        <v>1.123</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>1.31</v>
+        <v>1310</v>
       </c>
       <c r="D56" s="5">
-        <v>1.2010000000000001</v>
+        <v>1201</v>
       </c>
       <c r="E56" s="5">
-        <v>8.2579999999999991</v>
+        <v>8258</v>
       </c>
       <c r="F56" s="5">
-        <v>2.9750000000000001</v>
+        <v>2975</v>
       </c>
       <c r="G56" s="5">
-        <v>6.173</v>
+        <v>6173</v>
       </c>
       <c r="H56" s="5">
-        <v>13.295</v>
+        <v>13295</v>
       </c>
       <c r="I56" s="5">
-        <v>8.5549999999999997</v>
+        <v>8555</v>
       </c>
       <c r="J56" s="5">
-        <v>1.224</v>
-      </c>
-      <c r="K56" s="5">
+        <v>1224</v>
+      </c>
+      <c r="K56" s="6">
         <v>258</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>186</v>
       </c>
       <c r="M56" s="5">
-        <v>43.435000000000002</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3255,7 +3269,7 @@
         <v>11</v>
       </c>
       <c r="M58" s="5">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3294,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="5">
-        <v>1.117</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3334,7 +3348,7 @@
       <c r="L60" s="4">
         <v>5</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>605</v>
       </c>
     </row>
@@ -3373,7 +3387,7 @@
       <c r="L61" s="4">
         <v>2</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>525</v>
       </c>
     </row>
@@ -3414,7 +3428,7 @@
       <c r="L62" s="4">
         <v>5</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>519</v>
       </c>
     </row>
@@ -3453,7 +3467,7 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>422</v>
       </c>
     </row>
@@ -3494,7 +3508,7 @@
       <c r="L64" s="4">
         <v>5</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>517</v>
       </c>
     </row>
@@ -3533,7 +3547,7 @@
       <c r="L65" s="4">
         <v>2</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>450</v>
       </c>
     </row>
@@ -3574,7 +3588,7 @@
       <c r="L66" s="4">
         <v>5</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>563</v>
       </c>
     </row>
@@ -3613,7 +3627,7 @@
       <c r="L67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>500</v>
       </c>
     </row>
@@ -3654,7 +3668,7 @@
       <c r="L68" s="4">
         <v>2</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>483</v>
       </c>
     </row>
@@ -3693,7 +3707,7 @@
       <c r="L69" s="4">
         <v>2</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>365</v>
       </c>
     </row>
@@ -3734,7 +3748,7 @@
       <c r="L70" s="4">
         <v>5</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>428</v>
       </c>
     </row>
@@ -3773,7 +3787,7 @@
       <c r="L71" s="4">
         <v>2</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>404</v>
       </c>
     </row>
@@ -3814,7 +3828,7 @@
       <c r="L72" s="4">
         <v>2</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>378</v>
       </c>
     </row>
@@ -3853,7 +3867,7 @@
       <c r="L73" s="4">
         <v>3</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>350</v>
       </c>
     </row>
@@ -3894,7 +3908,7 @@
       <c r="L74" s="4">
         <v>2</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>326</v>
       </c>
     </row>
@@ -3933,7 +3947,7 @@
       <c r="L75" s="4">
         <v>5</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>294</v>
       </c>
     </row>
@@ -3974,7 +3988,7 @@
       <c r="L76" s="4">
         <v>1</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>264</v>
       </c>
     </row>
@@ -4013,7 +4027,7 @@
       <c r="L77" s="4">
         <v>4</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>262</v>
       </c>
     </row>
@@ -4054,7 +4068,7 @@
       <c r="L78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>195</v>
       </c>
     </row>
@@ -4093,7 +4107,7 @@
       <c r="L79" s="4">
         <v>3</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>251</v>
       </c>
     </row>
@@ -4134,7 +4148,7 @@
       <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>185</v>
       </c>
     </row>
@@ -4173,7 +4187,7 @@
       <c r="L81" s="4">
         <v>2</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>295</v>
       </c>
     </row>
@@ -4181,39 +4195,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="D82" s="5">
+        <v>1065</v>
+      </c>
+      <c r="D82" s="6">
         <v>881</v>
       </c>
       <c r="E82" s="5">
-        <v>2.74</v>
-      </c>
-      <c r="F82" s="5">
+        <v>2740</v>
+      </c>
+      <c r="F82" s="6">
         <v>926</v>
       </c>
       <c r="G82" s="5">
-        <v>2.1019999999999999</v>
+        <v>2102</v>
       </c>
       <c r="H82" s="5">
-        <v>2.278</v>
-      </c>
-      <c r="I82" s="5">
+        <v>2278</v>
+      </c>
+      <c r="I82" s="6">
         <v>678</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="6">
         <v>50</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>5</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>73</v>
       </c>
       <c r="M82" s="5">
-        <v>10.798</v>
+        <v>10798</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4293,7 +4307,7 @@
         <v>6</v>
       </c>
       <c r="M84" s="5">
-        <v>1.5089999999999999</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4332,7 +4346,7 @@
         <v>8</v>
       </c>
       <c r="M85" s="5">
-        <v>1.5820000000000001</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4372,7 +4386,7 @@
       <c r="L86" s="4">
         <v>11</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="6">
         <v>963</v>
       </c>
     </row>
@@ -4411,7 +4425,7 @@
       <c r="L87" s="4">
         <v>9</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>928</v>
       </c>
     </row>
@@ -4452,7 +4466,7 @@
       <c r="L88" s="4">
         <v>9</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>861</v>
       </c>
     </row>
@@ -4491,7 +4505,7 @@
       <c r="L89" s="4">
         <v>24</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>720</v>
       </c>
     </row>
@@ -4532,7 +4546,7 @@
       <c r="L90" s="4">
         <v>17</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>780</v>
       </c>
     </row>
@@ -4571,7 +4585,7 @@
       <c r="L91" s="4">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>659</v>
       </c>
     </row>
@@ -4612,7 +4626,7 @@
       <c r="L92" s="4">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>729</v>
       </c>
     </row>
@@ -4651,7 +4665,7 @@
       <c r="L93" s="4">
         <v>23</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>719</v>
       </c>
     </row>
@@ -4692,7 +4706,7 @@
       <c r="L94" s="4">
         <v>20</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>594</v>
       </c>
     </row>
@@ -4731,7 +4745,7 @@
       <c r="L95" s="4">
         <v>21</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>586</v>
       </c>
     </row>
@@ -4772,7 +4786,7 @@
       <c r="L96" s="4">
         <v>9</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>571</v>
       </c>
     </row>
@@ -4811,7 +4825,7 @@
       <c r="L97" s="4">
         <v>12</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>519</v>
       </c>
     </row>
@@ -4852,7 +4866,7 @@
       <c r="L98" s="4">
         <v>10</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>557</v>
       </c>
     </row>
@@ -4891,7 +4905,7 @@
       <c r="L99" s="4">
         <v>24</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>544</v>
       </c>
     </row>
@@ -4932,7 +4946,7 @@
       <c r="L100" s="4">
         <v>8</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>521</v>
       </c>
     </row>
@@ -4971,7 +4985,7 @@
       <c r="L101" s="4">
         <v>21</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>515</v>
       </c>
     </row>
@@ -5012,7 +5026,7 @@
       <c r="L102" s="4">
         <v>12</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>443</v>
       </c>
     </row>
@@ -5051,7 +5065,7 @@
       <c r="L103" s="4">
         <v>12</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>460</v>
       </c>
     </row>
@@ -5092,7 +5106,7 @@
       <c r="L104" s="4">
         <v>5</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>322</v>
       </c>
     </row>
@@ -5131,7 +5145,7 @@
       <c r="L105" s="4">
         <v>18</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>394</v>
       </c>
     </row>
@@ -5172,7 +5186,7 @@
       <c r="L106" s="4">
         <v>16</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>358</v>
       </c>
     </row>
@@ -5211,7 +5225,7 @@
       <c r="L107" s="4">
         <v>23</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>478</v>
       </c>
     </row>
@@ -5219,39 +5233,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>1.6759999999999999</v>
+        <v>1676</v>
       </c>
       <c r="D108" s="5">
-        <v>1.3220000000000001</v>
+        <v>1322</v>
       </c>
       <c r="E108" s="5">
-        <v>2.9729999999999999</v>
+        <v>2973</v>
       </c>
       <c r="F108" s="5">
-        <v>1.7529999999999999</v>
+        <v>1753</v>
       </c>
       <c r="G108" s="5">
-        <v>3.028</v>
+        <v>3028</v>
       </c>
       <c r="H108" s="5">
-        <v>3.391</v>
+        <v>3391</v>
       </c>
       <c r="I108" s="5">
-        <v>1.647</v>
-      </c>
-      <c r="J108" s="5">
+        <v>1647</v>
+      </c>
+      <c r="J108" s="6">
         <v>169</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>5</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>348</v>
       </c>
       <c r="M108" s="5">
-        <v>16.312000000000001</v>
+        <v>16312</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5312,11 +5326,11 @@
       <c r="F110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>1.218</v>
+      <c r="G110" s="9">
+        <v>1019</v>
+      </c>
+      <c r="H110" s="9">
+        <v>1218</v>
       </c>
       <c r="I110" s="4">
         <v>182</v>
@@ -5331,7 +5345,7 @@
         <v>33</v>
       </c>
       <c r="M110" s="5">
-        <v>2.4769999999999999</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5351,11 +5365,11 @@
       <c r="F111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1.113</v>
+      <c r="G111" s="9">
+        <v>1060</v>
+      </c>
+      <c r="H111" s="9">
+        <v>1113</v>
       </c>
       <c r="I111" s="4">
         <v>312</v>
@@ -5370,7 +5384,7 @@
         <v>5</v>
       </c>
       <c r="M111" s="5">
-        <v>2.5670000000000002</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5411,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="M112" s="5">
-        <v>1.5409999999999999</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5450,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="M113" s="5">
-        <v>1.4530000000000001</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5491,7 +5505,7 @@
         <v>7</v>
       </c>
       <c r="M114" s="5">
-        <v>1.2250000000000001</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5530,7 +5544,7 @@
         <v>15</v>
       </c>
       <c r="M115" s="5">
-        <v>1.1739999999999999</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5571,7 +5585,7 @@
         <v>8</v>
       </c>
       <c r="M116" s="5">
-        <v>1.1339999999999999</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5610,7 +5624,7 @@
         <v>10</v>
       </c>
       <c r="M117" s="5">
-        <v>1.054</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5651,7 +5665,7 @@
         <v>6</v>
       </c>
       <c r="M118" s="5">
-        <v>1.21</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5690,7 +5704,7 @@
         <v>13</v>
       </c>
       <c r="M119" s="5">
-        <v>1.107</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5730,7 +5744,7 @@
       <c r="L120" s="4">
         <v>8</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>899</v>
       </c>
     </row>
@@ -5769,7 +5783,7 @@
       <c r="L121" s="4">
         <v>11</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>841</v>
       </c>
     </row>
@@ -5810,7 +5824,7 @@
       <c r="L122" s="4">
         <v>7</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>844</v>
       </c>
     </row>
@@ -5849,7 +5863,7 @@
       <c r="L123" s="4">
         <v>1</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>797</v>
       </c>
     </row>
@@ -5890,7 +5904,7 @@
       <c r="L124" s="4">
         <v>5</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>808</v>
       </c>
     </row>
@@ -5929,7 +5943,7 @@
       <c r="L125" s="4">
         <v>12</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>659</v>
       </c>
     </row>
@@ -5970,7 +5984,7 @@
       <c r="L126" s="4">
         <v>2</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>618</v>
       </c>
     </row>
@@ -6009,7 +6023,7 @@
       <c r="L127" s="4">
         <v>8</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>645</v>
       </c>
     </row>
@@ -6050,7 +6064,7 @@
       <c r="L128" s="4">
         <v>1</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>477</v>
       </c>
     </row>
@@ -6089,7 +6103,7 @@
       <c r="L129" s="4">
         <v>6</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>493</v>
       </c>
     </row>
@@ -6130,7 +6144,7 @@
       <c r="L130" s="4">
         <v>4</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>373</v>
       </c>
     </row>
@@ -6169,7 +6183,7 @@
       <c r="L131" s="4">
         <v>5</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>461</v>
       </c>
     </row>
@@ -6210,7 +6224,7 @@
       <c r="L132" s="4">
         <v>1</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>454</v>
       </c>
     </row>
@@ -6249,7 +6263,7 @@
       <c r="L133" s="4">
         <v>21</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="6">
         <v>655</v>
       </c>
     </row>
@@ -6257,39 +6271,39 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>1.819</v>
+        <v>1819</v>
       </c>
       <c r="D134" s="5">
-        <v>1.9550000000000001</v>
+        <v>1955</v>
       </c>
       <c r="E134" s="5">
-        <v>5.6210000000000004</v>
+        <v>5621</v>
       </c>
       <c r="F134" s="5">
-        <v>1.9630000000000001</v>
+        <v>1963</v>
       </c>
       <c r="G134" s="5">
-        <v>4.827</v>
+        <v>4827</v>
       </c>
       <c r="H134" s="5">
-        <v>4.968</v>
+        <v>4968</v>
       </c>
       <c r="I134" s="5">
-        <v>2.3780000000000001</v>
-      </c>
-      <c r="J134" s="5">
+        <v>2378</v>
+      </c>
+      <c r="J134" s="6">
         <v>228</v>
       </c>
-      <c r="K134" s="5">
-        <v>14</v>
-      </c>
-      <c r="L134" s="5">
+      <c r="K134" s="6">
+        <v>14</v>
+      </c>
+      <c r="L134" s="6">
         <v>193</v>
       </c>
       <c r="M134" s="5">
-        <v>23.966000000000001</v>
+        <v>23966</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6368,7 +6382,7 @@
       <c r="L136" s="4">
         <v>7</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="6">
         <v>587</v>
       </c>
     </row>
@@ -6407,7 +6421,7 @@
       <c r="L137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="6">
         <v>575</v>
       </c>
     </row>
@@ -6448,7 +6462,7 @@
       <c r="L138" s="4">
         <v>2</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="6">
         <v>469</v>
       </c>
     </row>
@@ -6487,7 +6501,7 @@
       <c r="L139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="6">
         <v>445</v>
       </c>
     </row>
@@ -6528,7 +6542,7 @@
       <c r="L140" s="4">
         <v>3</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="6">
         <v>406</v>
       </c>
     </row>
@@ -6567,7 +6581,7 @@
       <c r="L141" s="4">
         <v>3</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>348</v>
       </c>
     </row>
@@ -6608,7 +6622,7 @@
       <c r="L142" s="4">
         <v>1</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="6">
         <v>433</v>
       </c>
     </row>
@@ -6647,7 +6661,7 @@
       <c r="L143" s="4">
         <v>3</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="6">
         <v>329</v>
       </c>
     </row>
@@ -6688,7 +6702,7 @@
       <c r="L144" s="4">
         <v>6</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="6">
         <v>392</v>
       </c>
     </row>
@@ -6727,7 +6741,7 @@
       <c r="L145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="6">
         <v>385</v>
       </c>
     </row>
@@ -6768,7 +6782,7 @@
       <c r="L146" s="4">
         <v>3</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="6">
         <v>393</v>
       </c>
     </row>
@@ -6807,7 +6821,7 @@
       <c r="L147" s="4">
         <v>5</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="6">
         <v>350</v>
       </c>
     </row>
@@ -6848,7 +6862,7 @@
       <c r="L148" s="4">
         <v>2</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="6">
         <v>407</v>
       </c>
     </row>
@@ -6887,7 +6901,7 @@
       <c r="L149" s="4">
         <v>4</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="6">
         <v>468</v>
       </c>
     </row>
@@ -6928,7 +6942,7 @@
       <c r="L150" s="4">
         <v>1</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="6">
         <v>487</v>
       </c>
     </row>
@@ -6967,7 +6981,7 @@
       <c r="L151" s="4">
         <v>4</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="6">
         <v>483</v>
       </c>
     </row>
@@ -7008,7 +7022,7 @@
       <c r="L152" s="4">
         <v>4</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>520</v>
       </c>
     </row>
@@ -7047,7 +7061,7 @@
       <c r="L153" s="4">
         <v>2</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>599</v>
       </c>
     </row>
@@ -7088,7 +7102,7 @@
       <c r="L154" s="4">
         <v>4</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>576</v>
       </c>
     </row>
@@ -7127,7 +7141,7 @@
       <c r="L155" s="4">
         <v>6</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>620</v>
       </c>
     </row>
@@ -7168,7 +7182,7 @@
       <c r="L156" s="4">
         <v>3</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>446</v>
       </c>
     </row>
@@ -7207,7 +7221,7 @@
       <c r="L157" s="4">
         <v>12</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>451</v>
       </c>
     </row>
@@ -7248,7 +7262,7 @@
       <c r="L158" s="4">
         <v>13</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="6">
         <v>704</v>
       </c>
     </row>
@@ -7287,7 +7301,7 @@
       <c r="L159" s="4">
         <v>42</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="6">
         <v>983</v>
       </c>
     </row>
@@ -7295,39 +7309,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="D160" s="5">
+        <v>1213</v>
+      </c>
+      <c r="D160" s="6">
         <v>875</v>
       </c>
       <c r="E160" s="5">
-        <v>3.7839999999999998</v>
-      </c>
-      <c r="F160" s="5">
+        <v>3784</v>
+      </c>
+      <c r="F160" s="6">
         <v>664</v>
       </c>
       <c r="G160" s="5">
-        <v>1.2490000000000001</v>
+        <v>1249</v>
       </c>
       <c r="H160" s="5">
-        <v>2.379</v>
+        <v>2379</v>
       </c>
       <c r="I160" s="5">
-        <v>1.403</v>
-      </c>
-      <c r="J160" s="5">
+        <v>1403</v>
+      </c>
+      <c r="J160" s="6">
         <v>150</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>9</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>130</v>
       </c>
       <c r="M160" s="5">
-        <v>11.856</v>
+        <v>11856</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7388,8 +7402,8 @@
       <c r="F162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.03</v>
+      <c r="G162" s="9">
+        <v>1030</v>
       </c>
       <c r="H162" s="4">
         <v>511</v>
@@ -7407,7 +7421,7 @@
         <v>16</v>
       </c>
       <c r="M162" s="5">
-        <v>1.7330000000000001</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7446,7 +7460,7 @@
         <v>9</v>
       </c>
       <c r="M163" s="5">
-        <v>1.669</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7486,7 +7500,7 @@
       <c r="L164" s="4">
         <v>4</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="6">
         <v>959</v>
       </c>
     </row>
@@ -7525,7 +7539,7 @@
       <c r="L165" s="4">
         <v>12</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="6">
         <v>919</v>
       </c>
     </row>
@@ -7566,7 +7580,7 @@
       <c r="L166" s="4">
         <v>10</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="6">
         <v>726</v>
       </c>
     </row>
@@ -7605,7 +7619,7 @@
       <c r="L167" s="4">
         <v>13</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="6">
         <v>642</v>
       </c>
     </row>
@@ -7646,7 +7660,7 @@
       <c r="L168" s="4">
         <v>16</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="6">
         <v>557</v>
       </c>
     </row>
@@ -7685,7 +7699,7 @@
       <c r="L169" s="4">
         <v>19</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>533</v>
       </c>
     </row>
@@ -7726,7 +7740,7 @@
       <c r="L170" s="4">
         <v>10</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="6">
         <v>574</v>
       </c>
     </row>
@@ -7765,7 +7779,7 @@
       <c r="L171" s="4">
         <v>22</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="6">
         <v>593</v>
       </c>
     </row>
@@ -7806,7 +7820,7 @@
       <c r="L172" s="4">
         <v>5</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>492</v>
       </c>
     </row>
@@ -7845,7 +7859,7 @@
       <c r="L173" s="4">
         <v>7</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>488</v>
       </c>
     </row>
@@ -7886,7 +7900,7 @@
       <c r="L174" s="4">
         <v>4</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>439</v>
       </c>
     </row>
@@ -7925,7 +7939,7 @@
       <c r="L175" s="4">
         <v>15</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>444</v>
       </c>
     </row>
@@ -7966,7 +7980,7 @@
       <c r="L176" s="4">
         <v>4</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>390</v>
       </c>
     </row>
@@ -8005,7 +8019,7 @@
       <c r="L177" s="4">
         <v>7</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>307</v>
       </c>
     </row>
@@ -8046,7 +8060,7 @@
       <c r="L178" s="4">
         <v>5</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>268</v>
       </c>
     </row>
@@ -8085,7 +8099,7 @@
       <c r="L179" s="4">
         <v>14</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>290</v>
       </c>
     </row>
@@ -8126,7 +8140,7 @@
       <c r="L180" s="4">
         <v>3</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>250</v>
       </c>
     </row>
@@ -8165,7 +8179,7 @@
       <c r="L181" s="4">
         <v>7</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>289</v>
       </c>
     </row>
@@ -8206,7 +8220,7 @@
       <c r="L182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>182</v>
       </c>
     </row>
@@ -8245,7 +8259,7 @@
       <c r="L183" s="4">
         <v>15</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>256</v>
       </c>
     </row>
@@ -8286,7 +8300,7 @@
       <c r="L184" s="4">
         <v>4</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>204</v>
       </c>
     </row>
@@ -8325,7 +8339,7 @@
       <c r="L185" s="4">
         <v>17</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="6">
         <v>352</v>
       </c>
     </row>
@@ -8333,39 +8347,39 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
-        <v>1.5089999999999999</v>
+        <v>1509</v>
       </c>
       <c r="D186" s="5">
-        <v>1.8340000000000001</v>
+        <v>1834</v>
       </c>
       <c r="E186" s="5">
-        <v>2.5830000000000002</v>
+        <v>2583</v>
       </c>
       <c r="F186" s="5">
-        <v>1.0129999999999999</v>
+        <v>1013</v>
       </c>
       <c r="G186" s="5">
-        <v>3.278</v>
+        <v>3278</v>
       </c>
       <c r="H186" s="5">
-        <v>2.0070000000000001</v>
-      </c>
-      <c r="I186" s="5">
+        <v>2007</v>
+      </c>
+      <c r="I186" s="6">
         <v>976</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="6">
         <v>114</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>4</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>238</v>
       </c>
       <c r="M186" s="5">
-        <v>13.555999999999999</v>
+        <v>13556</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8426,8 +8440,8 @@
       <c r="F188" s="4">
         <v>1</v>
       </c>
-      <c r="G188" s="4">
-        <v>1.18</v>
+      <c r="G188" s="9">
+        <v>1180</v>
       </c>
       <c r="H188" s="4">
         <v>676</v>
@@ -8445,7 +8459,7 @@
         <v>11</v>
       </c>
       <c r="M188" s="5">
-        <v>2.08</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8484,7 +8498,7 @@
         <v>14</v>
       </c>
       <c r="M189" s="5">
-        <v>1.899</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8525,7 +8539,7 @@
         <v>14</v>
       </c>
       <c r="M190" s="5">
-        <v>1.2010000000000001</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8564,7 +8578,7 @@
         <v>35</v>
       </c>
       <c r="M191" s="5">
-        <v>1.028</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8604,7 +8618,7 @@
       <c r="L192" s="4">
         <v>29</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="6">
         <v>799</v>
       </c>
     </row>
@@ -8643,7 +8657,7 @@
       <c r="L193" s="4">
         <v>52</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="6">
         <v>705</v>
       </c>
     </row>
@@ -8684,7 +8698,7 @@
       <c r="L194" s="4">
         <v>34</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="6">
         <v>700</v>
       </c>
     </row>
@@ -8723,7 +8737,7 @@
       <c r="L195" s="4">
         <v>29</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="6">
         <v>596</v>
       </c>
     </row>
@@ -8764,7 +8778,7 @@
       <c r="L196" s="4">
         <v>26</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="6">
         <v>684</v>
       </c>
     </row>
@@ -8803,7 +8817,7 @@
       <c r="L197" s="4">
         <v>29</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="6">
         <v>738</v>
       </c>
     </row>
@@ -8844,7 +8858,7 @@
       <c r="L198" s="4">
         <v>21</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="6">
         <v>609</v>
       </c>
     </row>
@@ -8883,7 +8897,7 @@
       <c r="L199" s="4">
         <v>18</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="6">
         <v>551</v>
       </c>
     </row>
@@ -8924,7 +8938,7 @@
       <c r="L200" s="4">
         <v>18</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="6">
         <v>609</v>
       </c>
     </row>
@@ -8963,7 +8977,7 @@
       <c r="L201" s="4">
         <v>16</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="6">
         <v>579</v>
       </c>
     </row>
@@ -9004,7 +9018,7 @@
       <c r="L202" s="4">
         <v>9</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="6">
         <v>473</v>
       </c>
     </row>
@@ -9043,7 +9057,7 @@
       <c r="L203" s="4">
         <v>10</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="6">
         <v>438</v>
       </c>
     </row>
@@ -9084,7 +9098,7 @@
       <c r="L204" s="4">
         <v>11</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="6">
         <v>440</v>
       </c>
     </row>
@@ -9123,7 +9137,7 @@
       <c r="L205" s="4">
         <v>9</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="6">
         <v>375</v>
       </c>
     </row>
@@ -9164,7 +9178,7 @@
       <c r="L206" s="4">
         <v>8</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>303</v>
       </c>
     </row>
@@ -9203,7 +9217,7 @@
       <c r="L207" s="4">
         <v>9</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="6">
         <v>357</v>
       </c>
     </row>
@@ -9244,7 +9258,7 @@
       <c r="L208" s="4">
         <v>7</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>255</v>
       </c>
     </row>
@@ -9283,7 +9297,7 @@
       <c r="L209" s="4">
         <v>23</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>312</v>
       </c>
     </row>
@@ -9324,7 +9338,7 @@
       <c r="L210" s="4">
         <v>7</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="6">
         <v>301</v>
       </c>
     </row>
@@ -9363,7 +9377,7 @@
       <c r="L211" s="4">
         <v>16</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="6">
         <v>418</v>
       </c>
     </row>
@@ -9371,39 +9385,39 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="5">
-        <v>2.2999999999999998</v>
+        <v>2300</v>
       </c>
       <c r="D212" s="5">
-        <v>1.7729999999999999</v>
+        <v>1773</v>
       </c>
       <c r="E212" s="5">
-        <v>3.3839999999999999</v>
-      </c>
-      <c r="F212" s="5">
+        <v>3384</v>
+      </c>
+      <c r="F212" s="6">
         <v>959</v>
       </c>
       <c r="G212" s="5">
-        <v>3.8090000000000002</v>
+        <v>3809</v>
       </c>
       <c r="H212" s="5">
-        <v>2.4369999999999998</v>
+        <v>2437</v>
       </c>
       <c r="I212" s="5">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="J212" s="5">
+        <v>1187</v>
+      </c>
+      <c r="J212" s="6">
         <v>141</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>5</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>455</v>
       </c>
       <c r="M212" s="5">
-        <v>16.45</v>
+        <v>16450</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9483,7 +9497,7 @@
         <v>11</v>
       </c>
       <c r="M214" s="5">
-        <v>1.056</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9522,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="M215" s="5">
-        <v>1.01</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9562,7 +9576,7 @@
       <c r="L216" s="4">
         <v>1</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="6">
         <v>507</v>
       </c>
     </row>
@@ -9601,7 +9615,7 @@
       <c r="L217" s="4">
         <v>2</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="6">
         <v>467</v>
       </c>
     </row>
@@ -9642,7 +9656,7 @@
       <c r="L218" s="4">
         <v>2</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="6">
         <v>445</v>
       </c>
     </row>
@@ -9681,7 +9695,7 @@
       <c r="L219" s="4">
         <v>3</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="6">
         <v>384</v>
       </c>
     </row>
@@ -9722,7 +9736,7 @@
       <c r="L220" s="4">
         <v>5</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="6">
         <v>424</v>
       </c>
     </row>
@@ -9761,7 +9775,7 @@
       <c r="L221" s="4">
         <v>1</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="6">
         <v>397</v>
       </c>
     </row>
@@ -9802,7 +9816,7 @@
       <c r="L222" s="4">
         <v>2</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="6">
         <v>420</v>
       </c>
     </row>
@@ -9841,7 +9855,7 @@
       <c r="L223" s="4">
         <v>1</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="6">
         <v>435</v>
       </c>
     </row>
@@ -9882,7 +9896,7 @@
       <c r="L224" s="4">
         <v>1</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="6">
         <v>413</v>
       </c>
     </row>
@@ -9921,7 +9935,7 @@
       <c r="L225" s="4">
         <v>7</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="6">
         <v>350</v>
       </c>
     </row>
@@ -9962,7 +9976,7 @@
       <c r="L226" s="4">
         <v>3</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="6">
         <v>361</v>
       </c>
     </row>
@@ -10001,7 +10015,7 @@
       <c r="L227" s="4">
         <v>1</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="6">
         <v>304</v>
       </c>
     </row>
@@ -10042,7 +10056,7 @@
       <c r="L228" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="6">
         <v>296</v>
       </c>
     </row>
@@ -10081,7 +10095,7 @@
       <c r="L229" s="4">
         <v>4</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="6">
         <v>265</v>
       </c>
     </row>
@@ -10122,7 +10136,7 @@
       <c r="L230" s="4">
         <v>3</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="6">
         <v>232</v>
       </c>
     </row>
@@ -10161,7 +10175,7 @@
       <c r="L231" s="4">
         <v>4</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="6">
         <v>224</v>
       </c>
     </row>
@@ -10202,7 +10216,7 @@
       <c r="L232" s="4">
         <v>2</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="6">
         <v>192</v>
       </c>
     </row>
@@ -10241,7 +10255,7 @@
       <c r="L233" s="4">
         <v>5</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="6">
         <v>229</v>
       </c>
     </row>
@@ -10282,7 +10296,7 @@
       <c r="L234" s="4">
         <v>1</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="6">
         <v>162</v>
       </c>
     </row>
@@ -10321,7 +10335,7 @@
       <c r="L235" s="4">
         <v>4</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="6">
         <v>168</v>
       </c>
     </row>
@@ -10362,7 +10376,7 @@
       <c r="L236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="6">
         <v>172</v>
       </c>
     </row>
@@ -10401,7 +10415,7 @@
       <c r="L237" s="4">
         <v>7</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="6">
         <v>288</v>
       </c>
     </row>
@@ -10409,39 +10423,39 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
         <v>755</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="6">
         <v>844</v>
       </c>
       <c r="E238" s="5">
-        <v>2.39</v>
-      </c>
-      <c r="F238" s="5">
+        <v>2390</v>
+      </c>
+      <c r="F238" s="6">
         <v>866</v>
       </c>
       <c r="G238" s="5">
-        <v>1.9710000000000001</v>
+        <v>1971</v>
       </c>
       <c r="H238" s="5">
-        <v>1.702</v>
-      </c>
-      <c r="I238" s="5">
+        <v>1702</v>
+      </c>
+      <c r="I238" s="6">
         <v>550</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="6">
         <v>46</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="6">
         <v>6</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="6">
         <v>71</v>
       </c>
       <c r="M238" s="5">
-        <v>9.2010000000000005</v>
+        <v>9201</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10520,7 +10534,7 @@
       <c r="L240" s="4">
         <v>8</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="6">
         <v>755</v>
       </c>
     </row>
@@ -10559,7 +10573,7 @@
       <c r="L241" s="4">
         <v>1</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="6">
         <v>757</v>
       </c>
     </row>
@@ -10600,7 +10614,7 @@
       <c r="L242" s="4">
         <v>14</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="6">
         <v>419</v>
       </c>
     </row>
@@ -10639,7 +10653,7 @@
       <c r="L243" s="4">
         <v>16</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="6">
         <v>451</v>
       </c>
     </row>
@@ -10680,7 +10694,7 @@
       <c r="L244" s="4">
         <v>3</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="6">
         <v>366</v>
       </c>
     </row>
@@ -10719,7 +10733,7 @@
       <c r="L245" s="4">
         <v>1</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="6">
         <v>292</v>
       </c>
     </row>
@@ -10760,7 +10774,7 @@
       <c r="L246" s="4">
         <v>1</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="6">
         <v>312</v>
       </c>
     </row>
@@ -10799,7 +10813,7 @@
       <c r="L247" s="4">
         <v>3</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="6">
         <v>290</v>
       </c>
     </row>
@@ -10840,7 +10854,7 @@
       <c r="L248" s="4">
         <v>1</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="6">
         <v>314</v>
       </c>
     </row>
@@ -10879,7 +10893,7 @@
       <c r="L249" s="4">
         <v>2</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>304</v>
       </c>
     </row>
@@ -10920,7 +10934,7 @@
       <c r="L250" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="6">
         <v>357</v>
       </c>
     </row>
@@ -10959,7 +10973,7 @@
       <c r="L251" s="4">
         <v>1</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>331</v>
       </c>
     </row>
@@ -11000,7 +11014,7 @@
       <c r="L252" s="4">
         <v>1</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>392</v>
       </c>
     </row>
@@ -11039,7 +11053,7 @@
       <c r="L253" s="4">
         <v>2</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>373</v>
       </c>
     </row>
@@ -11080,7 +11094,7 @@
       <c r="L254" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>377</v>
       </c>
     </row>
@@ -11119,7 +11133,7 @@
       <c r="L255" s="4">
         <v>1</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>348</v>
       </c>
     </row>
@@ -11160,7 +11174,7 @@
       <c r="L256" s="4">
         <v>1</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>300</v>
       </c>
     </row>
@@ -11199,7 +11213,7 @@
       <c r="L257" s="4">
         <v>2</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>355</v>
       </c>
     </row>
@@ -11240,7 +11254,7 @@
       <c r="L258" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>257</v>
       </c>
     </row>
@@ -11279,7 +11293,7 @@
       <c r="L259" s="4">
         <v>3</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>302</v>
       </c>
     </row>
@@ -11320,7 +11334,7 @@
       <c r="L260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>207</v>
       </c>
     </row>
@@ -11359,7 +11373,7 @@
       <c r="L261" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>238</v>
       </c>
     </row>
@@ -11400,7 +11414,7 @@
       <c r="L262" s="4">
         <v>2</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>340</v>
       </c>
     </row>
@@ -11439,7 +11453,7 @@
       <c r="L263" s="4">
         <v>5</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="6">
         <v>428</v>
       </c>
     </row>
@@ -11447,39 +11461,39 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
         <v>700</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="6">
         <v>433</v>
       </c>
       <c r="E264" s="5">
-        <v>2.246</v>
-      </c>
-      <c r="F264" s="5">
+        <v>2246</v>
+      </c>
+      <c r="F264" s="6">
         <v>582</v>
       </c>
       <c r="G264" s="5">
-        <v>1.323</v>
+        <v>1323</v>
       </c>
       <c r="H264" s="5">
-        <v>2.359</v>
+        <v>2359</v>
       </c>
       <c r="I264" s="5">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="J264" s="5">
+        <v>1064</v>
+      </c>
+      <c r="J264" s="6">
         <v>84</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="6">
         <v>6</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="6">
         <v>68</v>
       </c>
       <c r="M264" s="5">
-        <v>8.8650000000000002</v>
+        <v>8865</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11543,8 +11557,8 @@
       <c r="G266" s="4">
         <v>276</v>
       </c>
-      <c r="H266" s="4">
-        <v>1.032</v>
+      <c r="H266" s="9">
+        <v>1032</v>
       </c>
       <c r="I266" s="4">
         <v>198</v>
@@ -11559,7 +11573,7 @@
         <v>9</v>
       </c>
       <c r="M266" s="5">
-        <v>1.522</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11582,8 +11596,8 @@
       <c r="G267" s="4">
         <v>208</v>
       </c>
-      <c r="H267" s="4">
-        <v>1.028</v>
+      <c r="H267" s="9">
+        <v>1028</v>
       </c>
       <c r="I267" s="4">
         <v>290</v>
@@ -11598,7 +11612,7 @@
         <v>3</v>
       </c>
       <c r="M267" s="5">
-        <v>1.5309999999999999</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11638,7 +11652,7 @@
       <c r="L268" s="4">
         <v>6</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="6">
         <v>971</v>
       </c>
     </row>
@@ -11678,7 +11692,7 @@
         <v>5</v>
       </c>
       <c r="M269" s="5">
-        <v>1.054</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11719,7 +11733,7 @@
         <v>2</v>
       </c>
       <c r="M270" s="5">
-        <v>1.0309999999999999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11758,7 +11772,7 @@
         <v>6</v>
       </c>
       <c r="M271" s="5">
-        <v>1.0649999999999999</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11799,7 +11813,7 @@
         <v>5</v>
       </c>
       <c r="M272" s="5">
-        <v>1.0249999999999999</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11837,7 +11851,7 @@
       <c r="L273" s="4">
         <v>5</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="6">
         <v>959</v>
       </c>
     </row>
@@ -11878,7 +11892,7 @@
       <c r="L274" s="4">
         <v>7</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="6">
         <v>992</v>
       </c>
     </row>
@@ -11917,7 +11931,7 @@
       <c r="L275" s="4">
         <v>5</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="6">
         <v>986</v>
       </c>
     </row>
@@ -11958,7 +11972,7 @@
       <c r="L276" s="4">
         <v>4</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="6">
         <v>970</v>
       </c>
     </row>
@@ -11997,7 +12011,7 @@
       <c r="L277" s="4">
         <v>6</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="6">
         <v>855</v>
       </c>
     </row>
@@ -12038,7 +12052,7 @@
       <c r="L278" s="4">
         <v>9</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="6">
         <v>877</v>
       </c>
     </row>
@@ -12077,7 +12091,7 @@
       <c r="L279" s="4">
         <v>9</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="6">
         <v>847</v>
       </c>
     </row>
@@ -12118,7 +12132,7 @@
       <c r="L280" s="4">
         <v>9</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="6">
         <v>896</v>
       </c>
     </row>
@@ -12157,7 +12171,7 @@
       <c r="L281" s="4">
         <v>14</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="6">
         <v>935</v>
       </c>
     </row>
@@ -12198,7 +12212,7 @@
       <c r="L282" s="4">
         <v>6</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="6">
         <v>756</v>
       </c>
     </row>
@@ -12237,7 +12251,7 @@
       <c r="L283" s="4">
         <v>8</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="6">
         <v>880</v>
       </c>
     </row>
@@ -12278,7 +12292,7 @@
       <c r="L284" s="4">
         <v>3</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>652</v>
       </c>
     </row>
@@ -12317,7 +12331,7 @@
       <c r="L285" s="4">
         <v>21</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="6">
         <v>710</v>
       </c>
     </row>
@@ -12358,7 +12372,7 @@
       <c r="L286" s="4">
         <v>12</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>522</v>
       </c>
     </row>
@@ -12397,7 +12411,7 @@
       <c r="L287" s="4">
         <v>25</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>611</v>
       </c>
     </row>
@@ -12438,7 +12452,7 @@
       <c r="L288" s="4">
         <v>26</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>833</v>
       </c>
     </row>
@@ -12478,46 +12492,46 @@
         <v>49</v>
       </c>
       <c r="M289" s="5">
-        <v>1.0169999999999999</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="5">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="D290" s="5">
+        <v>1416</v>
+      </c>
+      <c r="D290" s="6">
         <v>717</v>
       </c>
       <c r="E290" s="5">
-        <v>4.8789999999999996</v>
+        <v>4879</v>
       </c>
       <c r="F290" s="5">
-        <v>1.65</v>
+        <v>1650</v>
       </c>
       <c r="G290" s="5">
-        <v>2.802</v>
+        <v>2802</v>
       </c>
       <c r="H290" s="5">
-        <v>6.5510000000000002</v>
+        <v>6551</v>
       </c>
       <c r="I290" s="5">
-        <v>3.7959999999999998</v>
-      </c>
-      <c r="J290" s="5">
+        <v>3796</v>
+      </c>
+      <c r="J290" s="6">
         <v>394</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="6">
         <v>38</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="6">
         <v>254</v>
       </c>
       <c r="M290" s="5">
-        <v>22.497</v>
+        <v>22497</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12596,7 +12610,7 @@
       <c r="L292" s="4">
         <v>1</v>
       </c>
-      <c r="M292" s="5">
+      <c r="M292" s="6">
         <v>234</v>
       </c>
     </row>
@@ -12635,7 +12649,7 @@
       <c r="L293" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M293" s="5">
+      <c r="M293" s="6">
         <v>201</v>
       </c>
     </row>
@@ -12676,7 +12690,7 @@
       <c r="L294" s="4">
         <v>1</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="6">
         <v>159</v>
       </c>
     </row>
@@ -12715,7 +12729,7 @@
       <c r="L295" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="6">
         <v>129</v>
       </c>
     </row>
@@ -12756,7 +12770,7 @@
       <c r="L296" s="4">
         <v>1</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="6">
         <v>151</v>
       </c>
     </row>
@@ -12795,7 +12809,7 @@
       <c r="L297" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="6">
         <v>118</v>
       </c>
     </row>
@@ -12836,7 +12850,7 @@
       <c r="L298" s="4">
         <v>1</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="6">
         <v>153</v>
       </c>
     </row>
@@ -12875,7 +12889,7 @@
       <c r="L299" s="4">
         <v>1</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="6">
         <v>118</v>
       </c>
     </row>
@@ -12916,7 +12930,7 @@
       <c r="L300" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="6">
         <v>181</v>
       </c>
     </row>
@@ -12955,7 +12969,7 @@
       <c r="L301" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="6">
         <v>151</v>
       </c>
     </row>
@@ -12996,7 +13010,7 @@
       <c r="L302" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="6">
         <v>185</v>
       </c>
     </row>
@@ -13035,7 +13049,7 @@
       <c r="L303" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="6">
         <v>152</v>
       </c>
     </row>
@@ -13076,7 +13090,7 @@
       <c r="L304" s="4">
         <v>3</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="6">
         <v>214</v>
       </c>
     </row>
@@ -13115,7 +13129,7 @@
       <c r="L305" s="4">
         <v>1</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="6">
         <v>215</v>
       </c>
     </row>
@@ -13156,7 +13170,7 @@
       <c r="L306" s="4">
         <v>1</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="6">
         <v>219</v>
       </c>
     </row>
@@ -13195,7 +13209,7 @@
       <c r="L307" s="4">
         <v>4</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="6">
         <v>240</v>
       </c>
     </row>
@@ -13236,7 +13250,7 @@
       <c r="L308" s="4">
         <v>1</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="6">
         <v>297</v>
       </c>
     </row>
@@ -13275,7 +13289,7 @@
       <c r="L309" s="4">
         <v>2</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="6">
         <v>285</v>
       </c>
     </row>
@@ -13316,7 +13330,7 @@
       <c r="L310" s="4">
         <v>3</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="6">
         <v>243</v>
       </c>
     </row>
@@ -13355,7 +13369,7 @@
       <c r="L311" s="4">
         <v>1</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="6">
         <v>287</v>
       </c>
     </row>
@@ -13396,7 +13410,7 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="6">
         <v>223</v>
       </c>
     </row>
@@ -13435,7 +13449,7 @@
       <c r="L313" s="4">
         <v>1</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="6">
         <v>285</v>
       </c>
     </row>
@@ -13476,7 +13490,7 @@
       <c r="L314" s="4">
         <v>3</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="6">
         <v>414</v>
       </c>
     </row>
@@ -13515,7 +13529,7 @@
       <c r="L315" s="4">
         <v>6</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="6">
         <v>543</v>
       </c>
     </row>
@@ -13523,39 +13537,39 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
         <v>424</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="6">
         <v>283</v>
       </c>
       <c r="E316" s="5">
-        <v>1.9530000000000001</v>
-      </c>
-      <c r="F316" s="5">
+        <v>1953</v>
+      </c>
+      <c r="F316" s="6">
         <v>363</v>
       </c>
-      <c r="G316" s="5">
+      <c r="G316" s="6">
         <v>696</v>
       </c>
       <c r="H316" s="5">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="I316" s="5">
+        <v>1067</v>
+      </c>
+      <c r="I316" s="6">
         <v>531</v>
       </c>
-      <c r="J316" s="5">
+      <c r="J316" s="6">
         <v>44</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="6">
         <v>3</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="6">
         <v>33</v>
       </c>
       <c r="M316" s="5">
-        <v>5.3970000000000002</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13616,14 +13630,14 @@
       <c r="F318" s="4">
         <v>1</v>
       </c>
-      <c r="G318" s="4">
-        <v>1.857</v>
-      </c>
-      <c r="H318" s="4">
-        <v>6.5069999999999997</v>
-      </c>
-      <c r="I318" s="4">
-        <v>1.4</v>
+      <c r="G318" s="9">
+        <v>1857</v>
+      </c>
+      <c r="H318" s="9">
+        <v>6507</v>
+      </c>
+      <c r="I318" s="9">
+        <v>1400</v>
       </c>
       <c r="J318" s="4">
         <v>15</v>
@@ -13635,7 +13649,7 @@
         <v>40</v>
       </c>
       <c r="M318" s="5">
-        <v>9.859</v>
+        <v>9859</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13655,14 +13669,14 @@
       <c r="F319" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G319" s="4">
-        <v>1.9970000000000001</v>
-      </c>
-      <c r="H319" s="4">
-        <v>6.3310000000000004</v>
-      </c>
-      <c r="I319" s="4">
-        <v>1.911</v>
+      <c r="G319" s="9">
+        <v>1997</v>
+      </c>
+      <c r="H319" s="9">
+        <v>6331</v>
+      </c>
+      <c r="I319" s="9">
+        <v>1911</v>
       </c>
       <c r="J319" s="4">
         <v>28</v>
@@ -13674,7 +13688,7 @@
         <v>12</v>
       </c>
       <c r="M319" s="5">
-        <v>10.367000000000001</v>
+        <v>10367</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13699,11 +13713,11 @@
       <c r="G320" s="4">
         <v>780</v>
       </c>
-      <c r="H320" s="4">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="I320" s="4">
-        <v>3.3</v>
+      <c r="H320" s="9">
+        <v>2441</v>
+      </c>
+      <c r="I320" s="9">
+        <v>3300</v>
       </c>
       <c r="J320" s="4">
         <v>315</v>
@@ -13715,7 +13729,7 @@
         <v>29</v>
       </c>
       <c r="M320" s="5">
-        <v>6.9610000000000003</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13735,14 +13749,14 @@
       <c r="F321" s="4">
         <v>119</v>
       </c>
-      <c r="G321" s="4">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="H321" s="4">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="I321" s="4">
-        <v>3.9380000000000002</v>
+      <c r="G321" s="9">
+        <v>1263</v>
+      </c>
+      <c r="H321" s="9">
+        <v>1616</v>
+      </c>
+      <c r="I321" s="9">
+        <v>3938</v>
       </c>
       <c r="J321" s="4">
         <v>471</v>
@@ -13754,7 +13768,7 @@
         <v>30</v>
       </c>
       <c r="M321" s="5">
-        <v>7.7539999999999996</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13779,11 +13793,11 @@
       <c r="G322" s="4">
         <v>478</v>
       </c>
-      <c r="H322" s="4">
-        <v>2.04</v>
-      </c>
-      <c r="I322" s="4">
-        <v>2.8479999999999999</v>
+      <c r="H322" s="9">
+        <v>2040</v>
+      </c>
+      <c r="I322" s="9">
+        <v>2848</v>
       </c>
       <c r="J322" s="4">
         <v>573</v>
@@ -13795,7 +13809,7 @@
         <v>22</v>
       </c>
       <c r="M322" s="5">
-        <v>6.5140000000000002</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13818,11 +13832,11 @@
       <c r="G323" s="4">
         <v>530</v>
       </c>
-      <c r="H323" s="4">
-        <v>1.5309999999999999</v>
-      </c>
-      <c r="I323" s="4">
-        <v>2.6890000000000001</v>
+      <c r="H323" s="9">
+        <v>1531</v>
+      </c>
+      <c r="I323" s="9">
+        <v>2689</v>
       </c>
       <c r="J323" s="4">
         <v>604</v>
@@ -13834,7 +13848,7 @@
         <v>35</v>
       </c>
       <c r="M323" s="5">
-        <v>6.9969999999999999</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13859,11 +13873,11 @@
       <c r="G324" s="4">
         <v>438</v>
       </c>
-      <c r="H324" s="4">
-        <v>2.1709999999999998</v>
-      </c>
-      <c r="I324" s="4">
-        <v>2.3679999999999999</v>
+      <c r="H324" s="9">
+        <v>2171</v>
+      </c>
+      <c r="I324" s="9">
+        <v>2368</v>
       </c>
       <c r="J324" s="4">
         <v>510</v>
@@ -13875,7 +13889,7 @@
         <v>24</v>
       </c>
       <c r="M324" s="5">
-        <v>6.4050000000000002</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13889,8 +13903,8 @@
       <c r="D325" s="4">
         <v>181</v>
       </c>
-      <c r="E325" s="4">
-        <v>1.403</v>
+      <c r="E325" s="9">
+        <v>1403</v>
       </c>
       <c r="F325" s="4">
         <v>714</v>
@@ -13898,11 +13912,11 @@
       <c r="G325" s="4">
         <v>531</v>
       </c>
-      <c r="H325" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="I325" s="4">
-        <v>1.8049999999999999</v>
+      <c r="H325" s="9">
+        <v>1670</v>
+      </c>
+      <c r="I325" s="9">
+        <v>1805</v>
       </c>
       <c r="J325" s="4">
         <v>401</v>
@@ -13914,7 +13928,7 @@
         <v>25</v>
       </c>
       <c r="M325" s="5">
-        <v>6.9290000000000003</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13939,11 +13953,11 @@
       <c r="G326" s="4">
         <v>723</v>
       </c>
-      <c r="H326" s="4">
-        <v>2.4689999999999999</v>
-      </c>
-      <c r="I326" s="4">
-        <v>1.913</v>
+      <c r="H326" s="9">
+        <v>2469</v>
+      </c>
+      <c r="I326" s="9">
+        <v>1913</v>
       </c>
       <c r="J326" s="4">
         <v>511</v>
@@ -13955,7 +13969,7 @@
         <v>18</v>
       </c>
       <c r="M326" s="5">
-        <v>6.5670000000000002</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13969,8 +13983,8 @@
       <c r="D327" s="4">
         <v>139</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.93</v>
+      <c r="E327" s="9">
+        <v>1930</v>
       </c>
       <c r="F327" s="4">
         <v>502</v>
@@ -13978,11 +13992,11 @@
       <c r="G327" s="4">
         <v>867</v>
       </c>
-      <c r="H327" s="4">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="I327" s="4">
-        <v>1.339</v>
+      <c r="H327" s="9">
+        <v>1576</v>
+      </c>
+      <c r="I327" s="9">
+        <v>1339</v>
       </c>
       <c r="J327" s="4">
         <v>279</v>
@@ -13994,7 +14008,7 @@
         <v>26</v>
       </c>
       <c r="M327" s="5">
-        <v>6.8570000000000002</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14019,11 +14033,11 @@
       <c r="G328" s="4">
         <v>778</v>
       </c>
-      <c r="H328" s="4">
-        <v>1.944</v>
-      </c>
-      <c r="I328" s="4">
-        <v>1.538</v>
+      <c r="H328" s="9">
+        <v>1944</v>
+      </c>
+      <c r="I328" s="9">
+        <v>1538</v>
       </c>
       <c r="J328" s="4">
         <v>243</v>
@@ -14035,7 +14049,7 @@
         <v>13</v>
       </c>
       <c r="M328" s="5">
-        <v>5.5049999999999999</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14049,8 +14063,8 @@
       <c r="D329" s="4">
         <v>145</v>
       </c>
-      <c r="E329" s="4">
-        <v>1.913</v>
+      <c r="E329" s="9">
+        <v>1913</v>
       </c>
       <c r="F329" s="4">
         <v>484</v>
@@ -14058,8 +14072,8 @@
       <c r="G329" s="4">
         <v>775</v>
       </c>
-      <c r="H329" s="4">
-        <v>1.2769999999999999</v>
+      <c r="H329" s="9">
+        <v>1277</v>
       </c>
       <c r="I329" s="4">
         <v>671</v>
@@ -14074,7 +14088,7 @@
         <v>24</v>
       </c>
       <c r="M329" s="5">
-        <v>5.5549999999999997</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14099,11 +14113,11 @@
       <c r="G330" s="4">
         <v>902</v>
       </c>
-      <c r="H330" s="4">
-        <v>1.462</v>
-      </c>
-      <c r="I330" s="4">
-        <v>1.218</v>
+      <c r="H330" s="9">
+        <v>1462</v>
+      </c>
+      <c r="I330" s="9">
+        <v>1218</v>
       </c>
       <c r="J330" s="4">
         <v>111</v>
@@ -14115,7 +14129,7 @@
         <v>16</v>
       </c>
       <c r="M330" s="5">
-        <v>4.6109999999999998</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14129,8 +14143,8 @@
       <c r="D331" s="4">
         <v>211</v>
       </c>
-      <c r="E331" s="4">
-        <v>1.796</v>
+      <c r="E331" s="9">
+        <v>1796</v>
       </c>
       <c r="F331" s="4">
         <v>449</v>
@@ -14154,7 +14168,7 @@
         <v>31</v>
       </c>
       <c r="M331" s="5">
-        <v>4.6950000000000003</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14179,8 +14193,8 @@
       <c r="G332" s="4">
         <v>773</v>
       </c>
-      <c r="H332" s="4">
-        <v>1.19</v>
+      <c r="H332" s="9">
+        <v>1190</v>
       </c>
       <c r="I332" s="4">
         <v>813</v>
@@ -14195,7 +14209,7 @@
         <v>11</v>
       </c>
       <c r="M332" s="5">
-        <v>3.7589999999999999</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14209,8 +14223,8 @@
       <c r="D333" s="4">
         <v>239</v>
       </c>
-      <c r="E333" s="4">
-        <v>1.694</v>
+      <c r="E333" s="9">
+        <v>1694</v>
       </c>
       <c r="F333" s="4">
         <v>289</v>
@@ -14234,7 +14248,7 @@
         <v>47</v>
       </c>
       <c r="M333" s="5">
-        <v>3.7189999999999999</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14275,7 +14289,7 @@
         <v>15</v>
       </c>
       <c r="M334" s="5">
-        <v>2.9630000000000001</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14289,8 +14303,8 @@
       <c r="D335" s="4">
         <v>275</v>
       </c>
-      <c r="E335" s="4">
-        <v>1.5820000000000001</v>
+      <c r="E335" s="9">
+        <v>1582</v>
       </c>
       <c r="F335" s="4">
         <v>176</v>
@@ -14314,7 +14328,7 @@
         <v>30</v>
       </c>
       <c r="M335" s="5">
-        <v>3.2879999999999998</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14355,7 +14369,7 @@
         <v>18</v>
       </c>
       <c r="M336" s="5">
-        <v>2.4790000000000001</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14369,8 +14383,8 @@
       <c r="D337" s="4">
         <v>347</v>
       </c>
-      <c r="E337" s="4">
-        <v>1.385</v>
+      <c r="E337" s="9">
+        <v>1385</v>
       </c>
       <c r="F337" s="4">
         <v>75</v>
@@ -14394,7 +14408,7 @@
         <v>38</v>
       </c>
       <c r="M337" s="5">
-        <v>2.8130000000000002</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14435,7 +14449,7 @@
         <v>11</v>
       </c>
       <c r="M338" s="5">
-        <v>1.7290000000000001</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14474,7 +14488,7 @@
         <v>30</v>
       </c>
       <c r="M339" s="5">
-        <v>1.9319999999999999</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14515,7 +14529,7 @@
         <v>21</v>
       </c>
       <c r="M340" s="5">
-        <v>1.7150000000000001</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14523,8 +14537,8 @@
       <c r="B341" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="4">
-        <v>1.0900000000000001</v>
+      <c r="C341" s="9">
+        <v>1090</v>
       </c>
       <c r="D341" s="4">
         <v>466</v>
@@ -14554,46 +14568,46 @@
         <v>74</v>
       </c>
       <c r="M341" s="5">
-        <v>2.6669999999999998</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="5">
-        <v>3.4630000000000001</v>
+        <v>3463</v>
       </c>
       <c r="D342" s="5">
-        <v>3.1160000000000001</v>
+        <v>3116</v>
       </c>
       <c r="E342" s="5">
-        <v>18.294</v>
+        <v>18294</v>
       </c>
       <c r="F342" s="5">
-        <v>7.4210000000000003</v>
+        <v>7421</v>
       </c>
       <c r="G342" s="5">
-        <v>15.944000000000001</v>
+        <v>15944</v>
       </c>
       <c r="H342" s="5">
-        <v>38.61</v>
+        <v>38610</v>
       </c>
       <c r="I342" s="5">
-        <v>29.872</v>
+        <v>29872</v>
       </c>
       <c r="J342" s="5">
-        <v>4.4089999999999998</v>
-      </c>
-      <c r="K342" s="5">
+        <v>4409</v>
+      </c>
+      <c r="K342" s="6">
         <v>871</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="6">
         <v>640</v>
       </c>
       <c r="M342" s="5">
-        <v>122.64</v>
+        <v>122640</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14657,8 +14671,8 @@
       <c r="G344" s="4">
         <v>543</v>
       </c>
-      <c r="H344" s="4">
-        <v>1.069</v>
+      <c r="H344" s="9">
+        <v>1069</v>
       </c>
       <c r="I344" s="4">
         <v>133</v>
@@ -14673,7 +14687,7 @@
         <v>18</v>
       </c>
       <c r="M344" s="5">
-        <v>1.784</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14712,7 +14726,7 @@
         <v>2</v>
       </c>
       <c r="M345" s="5">
-        <v>1.8149999999999999</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14752,7 +14766,7 @@
       <c r="L346" s="4">
         <v>1</v>
       </c>
-      <c r="M346" s="5">
+      <c r="M346" s="6">
         <v>983</v>
       </c>
     </row>
@@ -14792,7 +14806,7 @@
         <v>5</v>
       </c>
       <c r="M347" s="5">
-        <v>1.0249999999999999</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14832,7 +14846,7 @@
       <c r="L348" s="4">
         <v>2</v>
       </c>
-      <c r="M348" s="5">
+      <c r="M348" s="6">
         <v>867</v>
       </c>
     </row>
@@ -14871,7 +14885,7 @@
       <c r="L349" s="4">
         <v>2</v>
       </c>
-      <c r="M349" s="5">
+      <c r="M349" s="6">
         <v>816</v>
       </c>
     </row>
@@ -14912,7 +14926,7 @@
       <c r="L350" s="4">
         <v>4</v>
       </c>
-      <c r="M350" s="5">
+      <c r="M350" s="6">
         <v>866</v>
       </c>
     </row>
@@ -14951,7 +14965,7 @@
       <c r="L351" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M351" s="5">
+      <c r="M351" s="6">
         <v>775</v>
       </c>
     </row>
@@ -14992,7 +15006,7 @@
       <c r="L352" s="4">
         <v>1</v>
       </c>
-      <c r="M352" s="5">
+      <c r="M352" s="6">
         <v>864</v>
       </c>
     </row>
@@ -15031,7 +15045,7 @@
       <c r="L353" s="4">
         <v>6</v>
       </c>
-      <c r="M353" s="5">
+      <c r="M353" s="6">
         <v>902</v>
       </c>
     </row>
@@ -15072,7 +15086,7 @@
       <c r="L354" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M354" s="5">
+      <c r="M354" s="6">
         <v>852</v>
       </c>
     </row>
@@ -15111,7 +15125,7 @@
       <c r="L355" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M355" s="5">
+      <c r="M355" s="6">
         <v>698</v>
       </c>
     </row>
@@ -15152,7 +15166,7 @@
       <c r="L356" s="4">
         <v>1</v>
       </c>
-      <c r="M356" s="5">
+      <c r="M356" s="6">
         <v>769</v>
       </c>
     </row>
@@ -15191,7 +15205,7 @@
       <c r="L357" s="4">
         <v>5</v>
       </c>
-      <c r="M357" s="5">
+      <c r="M357" s="6">
         <v>661</v>
       </c>
     </row>
@@ -15232,7 +15246,7 @@
       <c r="L358" s="4">
         <v>1</v>
       </c>
-      <c r="M358" s="5">
+      <c r="M358" s="6">
         <v>611</v>
       </c>
     </row>
@@ -15271,7 +15285,7 @@
       <c r="L359" s="4">
         <v>2</v>
       </c>
-      <c r="M359" s="5">
+      <c r="M359" s="6">
         <v>559</v>
       </c>
     </row>
@@ -15312,7 +15326,7 @@
       <c r="L360" s="4">
         <v>1</v>
       </c>
-      <c r="M360" s="5">
+      <c r="M360" s="6">
         <v>460</v>
       </c>
     </row>
@@ -15351,7 +15365,7 @@
       <c r="L361" s="4">
         <v>5</v>
       </c>
-      <c r="M361" s="5">
+      <c r="M361" s="6">
         <v>462</v>
       </c>
     </row>
@@ -15392,7 +15406,7 @@
       <c r="L362" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M362" s="5">
+      <c r="M362" s="6">
         <v>401</v>
       </c>
     </row>
@@ -15431,7 +15445,7 @@
       <c r="L363" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M363" s="5">
+      <c r="M363" s="6">
         <v>415</v>
       </c>
     </row>
@@ -15472,7 +15486,7 @@
       <c r="L364" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M364" s="5">
+      <c r="M364" s="6">
         <v>275</v>
       </c>
     </row>
@@ -15511,7 +15525,7 @@
       <c r="L365" s="4">
         <v>1</v>
       </c>
-      <c r="M365" s="5">
+      <c r="M365" s="6">
         <v>320</v>
       </c>
     </row>
@@ -15552,7 +15566,7 @@
       <c r="L366" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M366" s="5">
+      <c r="M366" s="6">
         <v>314</v>
       </c>
     </row>
@@ -15591,7 +15605,7 @@
       <c r="L367" s="4">
         <v>3</v>
       </c>
-      <c r="M367" s="5">
+      <c r="M367" s="6">
         <v>515</v>
       </c>
     </row>
@@ -15599,39 +15613,39 @@
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
+      <c r="B368" s="7"/>
+      <c r="C368" s="6">
         <v>849</v>
       </c>
-      <c r="D368" s="5">
+      <c r="D368" s="6">
         <v>801</v>
       </c>
       <c r="E368" s="5">
-        <v>5.1109999999999998</v>
+        <v>5111</v>
       </c>
       <c r="F368" s="5">
-        <v>1.59</v>
+        <v>1590</v>
       </c>
       <c r="G368" s="5">
-        <v>3.2890000000000001</v>
+        <v>3289</v>
       </c>
       <c r="H368" s="5">
-        <v>4.4850000000000003</v>
+        <v>4485</v>
       </c>
       <c r="I368" s="5">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="J368" s="5">
+        <v>1668</v>
+      </c>
+      <c r="J368" s="6">
         <v>142</v>
       </c>
-      <c r="K368" s="5">
-        <v>14</v>
-      </c>
-      <c r="L368" s="5">
+      <c r="K368" s="6">
+        <v>14</v>
+      </c>
+      <c r="L368" s="6">
         <v>60</v>
       </c>
       <c r="M368" s="5">
-        <v>18.009</v>
+        <v>18009</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15710,7 +15724,7 @@
       <c r="L370" s="4">
         <v>1</v>
       </c>
-      <c r="M370" s="5">
+      <c r="M370" s="6">
         <v>129</v>
       </c>
     </row>
@@ -15749,7 +15763,7 @@
       <c r="L371" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M371" s="5">
+      <c r="M371" s="6">
         <v>136</v>
       </c>
     </row>
@@ -15790,7 +15804,7 @@
       <c r="L372" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M372" s="5">
+      <c r="M372" s="6">
         <v>128</v>
       </c>
     </row>
@@ -15829,7 +15843,7 @@
       <c r="L373" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M373" s="5">
+      <c r="M373" s="6">
         <v>117</v>
       </c>
     </row>
@@ -15870,7 +15884,7 @@
       <c r="L374" s="4">
         <v>1</v>
       </c>
-      <c r="M374" s="5">
+      <c r="M374" s="6">
         <v>90</v>
       </c>
     </row>
@@ -15909,7 +15923,7 @@
       <c r="L375" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M375" s="5">
+      <c r="M375" s="6">
         <v>72</v>
       </c>
     </row>
@@ -15950,7 +15964,7 @@
       <c r="L376" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M376" s="5">
+      <c r="M376" s="6">
         <v>78</v>
       </c>
     </row>
@@ -15989,7 +16003,7 @@
       <c r="L377" s="4">
         <v>1</v>
       </c>
-      <c r="M377" s="5">
+      <c r="M377" s="6">
         <v>62</v>
       </c>
     </row>
@@ -16030,7 +16044,7 @@
       <c r="L378" s="4">
         <v>1</v>
       </c>
-      <c r="M378" s="5">
+      <c r="M378" s="6">
         <v>74</v>
       </c>
     </row>
@@ -16069,7 +16083,7 @@
       <c r="L379" s="4">
         <v>2</v>
       </c>
-      <c r="M379" s="5">
+      <c r="M379" s="6">
         <v>63</v>
       </c>
     </row>
@@ -16110,7 +16124,7 @@
       <c r="L380" s="4">
         <v>1</v>
       </c>
-      <c r="M380" s="5">
+      <c r="M380" s="6">
         <v>79</v>
       </c>
     </row>
@@ -16149,7 +16163,7 @@
       <c r="L381" s="4">
         <v>1</v>
       </c>
-      <c r="M381" s="5">
+      <c r="M381" s="6">
         <v>79</v>
       </c>
     </row>
@@ -16190,7 +16204,7 @@
       <c r="L382" s="4">
         <v>2</v>
       </c>
-      <c r="M382" s="5">
+      <c r="M382" s="6">
         <v>110</v>
       </c>
     </row>
@@ -16229,7 +16243,7 @@
       <c r="L383" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M383" s="5">
+      <c r="M383" s="6">
         <v>117</v>
       </c>
     </row>
@@ -16270,7 +16284,7 @@
       <c r="L384" s="4">
         <v>4</v>
       </c>
-      <c r="M384" s="5">
+      <c r="M384" s="6">
         <v>137</v>
       </c>
     </row>
@@ -16309,7 +16323,7 @@
       <c r="L385" s="4">
         <v>3</v>
       </c>
-      <c r="M385" s="5">
+      <c r="M385" s="6">
         <v>165</v>
       </c>
     </row>
@@ -16350,7 +16364,7 @@
       <c r="L386" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M386" s="5">
+      <c r="M386" s="6">
         <v>171</v>
       </c>
     </row>
@@ -16389,7 +16403,7 @@
       <c r="L387" s="4">
         <v>3</v>
       </c>
-      <c r="M387" s="5">
+      <c r="M387" s="6">
         <v>181</v>
       </c>
     </row>
@@ -16430,7 +16444,7 @@
       <c r="L388" s="4">
         <v>3</v>
       </c>
-      <c r="M388" s="5">
+      <c r="M388" s="6">
         <v>200</v>
       </c>
     </row>
@@ -16469,7 +16483,7 @@
       <c r="L389" s="4">
         <v>5</v>
       </c>
-      <c r="M389" s="5">
+      <c r="M389" s="6">
         <v>182</v>
       </c>
     </row>
@@ -16510,7 +16524,7 @@
       <c r="L390" s="4">
         <v>4</v>
       </c>
-      <c r="M390" s="5">
+      <c r="M390" s="6">
         <v>137</v>
       </c>
     </row>
@@ -16549,7 +16563,7 @@
       <c r="L391" s="4">
         <v>2</v>
       </c>
-      <c r="M391" s="5">
+      <c r="M391" s="6">
         <v>117</v>
       </c>
     </row>
@@ -16590,7 +16604,7 @@
       <c r="L392" s="4">
         <v>4</v>
       </c>
-      <c r="M392" s="5">
+      <c r="M392" s="6">
         <v>189</v>
       </c>
     </row>
@@ -16629,7 +16643,7 @@
       <c r="L393" s="4">
         <v>6</v>
       </c>
-      <c r="M393" s="5">
+      <c r="M393" s="6">
         <v>259</v>
       </c>
     </row>
@@ -16637,39 +16651,39 @@
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
+      <c r="B394" s="7"/>
+      <c r="C394" s="6">
         <v>215</v>
       </c>
-      <c r="D394" s="5">
+      <c r="D394" s="6">
         <v>280</v>
       </c>
       <c r="E394" s="5">
-        <v>1.175</v>
-      </c>
-      <c r="F394" s="5">
+        <v>1175</v>
+      </c>
+      <c r="F394" s="6">
         <v>196</v>
       </c>
-      <c r="G394" s="5">
+      <c r="G394" s="6">
         <v>355</v>
       </c>
-      <c r="H394" s="5">
+      <c r="H394" s="6">
         <v>450</v>
       </c>
-      <c r="I394" s="5">
+      <c r="I394" s="6">
         <v>320</v>
       </c>
-      <c r="J394" s="5">
+      <c r="J394" s="6">
         <v>36</v>
       </c>
-      <c r="K394" s="5">
-        <v>1</v>
-      </c>
-      <c r="L394" s="5">
+      <c r="K394" s="6">
+        <v>1</v>
+      </c>
+      <c r="L394" s="6">
         <v>44</v>
       </c>
       <c r="M394" s="5">
-        <v>3.0720000000000001</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16748,7 +16762,7 @@
       <c r="L396" s="4">
         <v>3</v>
       </c>
-      <c r="M396" s="5">
+      <c r="M396" s="6">
         <v>785</v>
       </c>
     </row>
@@ -16787,7 +16801,7 @@
       <c r="L397" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M397" s="5">
+      <c r="M397" s="6">
         <v>807</v>
       </c>
     </row>
@@ -16828,7 +16842,7 @@
       <c r="L398" s="4">
         <v>4</v>
       </c>
-      <c r="M398" s="5">
+      <c r="M398" s="6">
         <v>528</v>
       </c>
     </row>
@@ -16867,7 +16881,7 @@
       <c r="L399" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M399" s="5">
+      <c r="M399" s="6">
         <v>446</v>
       </c>
     </row>
@@ -16908,7 +16922,7 @@
       <c r="L400" s="4">
         <v>3</v>
       </c>
-      <c r="M400" s="5">
+      <c r="M400" s="6">
         <v>460</v>
       </c>
     </row>
@@ -16947,7 +16961,7 @@
       <c r="L401" s="4">
         <v>3</v>
       </c>
-      <c r="M401" s="5">
+      <c r="M401" s="6">
         <v>369</v>
       </c>
     </row>
@@ -16988,7 +17002,7 @@
       <c r="L402" s="4">
         <v>3</v>
       </c>
-      <c r="M402" s="5">
+      <c r="M402" s="6">
         <v>397</v>
       </c>
     </row>
@@ -17027,7 +17041,7 @@
       <c r="L403" s="4">
         <v>4</v>
       </c>
-      <c r="M403" s="5">
+      <c r="M403" s="6">
         <v>327</v>
       </c>
     </row>
@@ -17068,7 +17082,7 @@
       <c r="L404" s="4">
         <v>2</v>
       </c>
-      <c r="M404" s="5">
+      <c r="M404" s="6">
         <v>473</v>
       </c>
     </row>
@@ -17107,7 +17121,7 @@
       <c r="L405" s="4">
         <v>4</v>
       </c>
-      <c r="M405" s="5">
+      <c r="M405" s="6">
         <v>424</v>
       </c>
     </row>
@@ -17148,7 +17162,7 @@
       <c r="L406" s="4">
         <v>2</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="6">
         <v>535</v>
       </c>
     </row>
@@ -17187,7 +17201,7 @@
       <c r="L407" s="4">
         <v>3</v>
       </c>
-      <c r="M407" s="5">
+      <c r="M407" s="6">
         <v>471</v>
       </c>
     </row>
@@ -17228,7 +17242,7 @@
       <c r="L408" s="4">
         <v>3</v>
       </c>
-      <c r="M408" s="5">
+      <c r="M408" s="6">
         <v>567</v>
       </c>
     </row>
@@ -17267,7 +17281,7 @@
       <c r="L409" s="4">
         <v>8</v>
       </c>
-      <c r="M409" s="5">
+      <c r="M409" s="6">
         <v>519</v>
       </c>
     </row>
@@ -17308,7 +17322,7 @@
       <c r="L410" s="4">
         <v>6</v>
       </c>
-      <c r="M410" s="5">
+      <c r="M410" s="6">
         <v>579</v>
       </c>
     </row>
@@ -17347,7 +17361,7 @@
       <c r="L411" s="4">
         <v>10</v>
       </c>
-      <c r="M411" s="5">
+      <c r="M411" s="6">
         <v>567</v>
       </c>
     </row>
@@ -17388,7 +17402,7 @@
       <c r="L412" s="4">
         <v>4</v>
       </c>
-      <c r="M412" s="5">
+      <c r="M412" s="6">
         <v>470</v>
       </c>
     </row>
@@ -17427,7 +17441,7 @@
       <c r="L413" s="4">
         <v>15</v>
       </c>
-      <c r="M413" s="5">
+      <c r="M413" s="6">
         <v>622</v>
       </c>
     </row>
@@ -17468,7 +17482,7 @@
       <c r="L414" s="4">
         <v>3</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="6">
         <v>407</v>
       </c>
     </row>
@@ -17507,7 +17521,7 @@
       <c r="L415" s="4">
         <v>9</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="6">
         <v>449</v>
       </c>
     </row>
@@ -17548,7 +17562,7 @@
       <c r="L416" s="4">
         <v>4</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="6">
         <v>355</v>
       </c>
     </row>
@@ -17587,7 +17601,7 @@
       <c r="L417" s="4">
         <v>11</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="6">
         <v>416</v>
       </c>
     </row>
@@ -17628,7 +17642,7 @@
       <c r="L418" s="4">
         <v>16</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="6">
         <v>791</v>
       </c>
     </row>
@@ -17668,46 +17682,46 @@
         <v>28</v>
       </c>
       <c r="M419" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="5">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="D420" s="5">
+        <v>1233</v>
+      </c>
+      <c r="D420" s="6">
         <v>703</v>
       </c>
       <c r="E420" s="5">
-        <v>3.8050000000000002</v>
+        <v>3805</v>
       </c>
       <c r="F420" s="5">
-        <v>1.1639999999999999</v>
+        <v>1164</v>
       </c>
       <c r="G420" s="5">
-        <v>1.841</v>
+        <v>1841</v>
       </c>
       <c r="H420" s="5">
-        <v>2.6520000000000001</v>
+        <v>2652</v>
       </c>
       <c r="I420" s="5">
-        <v>1.119</v>
-      </c>
-      <c r="J420" s="5">
+        <v>1119</v>
+      </c>
+      <c r="J420" s="6">
         <v>84</v>
       </c>
-      <c r="K420" s="5">
-        <v>15</v>
-      </c>
-      <c r="L420" s="5">
+      <c r="K420" s="6">
+        <v>15</v>
+      </c>
+      <c r="L420" s="6">
         <v>148</v>
       </c>
       <c r="M420" s="5">
-        <v>12.763999999999999</v>
+        <v>12764</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17787,7 +17801,7 @@
         <v>19</v>
       </c>
       <c r="M422" s="5">
-        <v>1.71</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17826,7 +17840,7 @@
         <v>4</v>
       </c>
       <c r="M423" s="5">
-        <v>1.6930000000000001</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17866,7 +17880,7 @@
       <c r="L424" s="4">
         <v>4</v>
       </c>
-      <c r="M424" s="5">
+      <c r="M424" s="6">
         <v>943</v>
       </c>
     </row>
@@ -17905,7 +17919,7 @@
       <c r="L425" s="4">
         <v>11</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="6">
         <v>855</v>
       </c>
     </row>
@@ -17946,7 +17960,7 @@
       <c r="L426" s="4">
         <v>14</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="6">
         <v>703</v>
       </c>
     </row>
@@ -17985,7 +17999,7 @@
       <c r="L427" s="4">
         <v>20</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="6">
         <v>671</v>
       </c>
     </row>
@@ -18026,7 +18040,7 @@
       <c r="L428" s="4">
         <v>30</v>
       </c>
-      <c r="M428" s="5">
+      <c r="M428" s="6">
         <v>686</v>
       </c>
     </row>
@@ -18065,7 +18079,7 @@
       <c r="L429" s="4">
         <v>24</v>
       </c>
-      <c r="M429" s="5">
+      <c r="M429" s="6">
         <v>622</v>
       </c>
     </row>
@@ -18106,7 +18120,7 @@
       <c r="L430" s="4">
         <v>26</v>
       </c>
-      <c r="M430" s="5">
+      <c r="M430" s="6">
         <v>671</v>
       </c>
     </row>
@@ -18145,7 +18159,7 @@
       <c r="L431" s="4">
         <v>17</v>
       </c>
-      <c r="M431" s="5">
+      <c r="M431" s="6">
         <v>632</v>
       </c>
     </row>
@@ -18186,7 +18200,7 @@
       <c r="L432" s="4">
         <v>12</v>
       </c>
-      <c r="M432" s="5">
+      <c r="M432" s="6">
         <v>529</v>
       </c>
     </row>
@@ -18225,7 +18239,7 @@
       <c r="L433" s="4">
         <v>14</v>
       </c>
-      <c r="M433" s="5">
+      <c r="M433" s="6">
         <v>523</v>
       </c>
     </row>
@@ -18266,7 +18280,7 @@
       <c r="L434" s="4">
         <v>6</v>
       </c>
-      <c r="M434" s="5">
+      <c r="M434" s="6">
         <v>452</v>
       </c>
     </row>
@@ -18305,7 +18319,7 @@
       <c r="L435" s="4">
         <v>8</v>
       </c>
-      <c r="M435" s="5">
+      <c r="M435" s="6">
         <v>462</v>
       </c>
     </row>
@@ -18346,7 +18360,7 @@
       <c r="L436" s="4">
         <v>16</v>
       </c>
-      <c r="M436" s="5">
+      <c r="M436" s="6">
         <v>487</v>
       </c>
     </row>
@@ -18385,7 +18399,7 @@
       <c r="L437" s="4">
         <v>14</v>
       </c>
-      <c r="M437" s="5">
+      <c r="M437" s="6">
         <v>408</v>
       </c>
     </row>
@@ -18426,7 +18440,7 @@
       <c r="L438" s="4">
         <v>7</v>
       </c>
-      <c r="M438" s="5">
+      <c r="M438" s="6">
         <v>381</v>
       </c>
     </row>
@@ -18465,7 +18479,7 @@
       <c r="L439" s="4">
         <v>6</v>
       </c>
-      <c r="M439" s="5">
+      <c r="M439" s="6">
         <v>364</v>
       </c>
     </row>
@@ -18506,7 +18520,7 @@
       <c r="L440" s="4">
         <v>9</v>
       </c>
-      <c r="M440" s="5">
+      <c r="M440" s="6">
         <v>366</v>
       </c>
     </row>
@@ -18545,7 +18559,7 @@
       <c r="L441" s="4">
         <v>13</v>
       </c>
-      <c r="M441" s="5">
+      <c r="M441" s="6">
         <v>391</v>
       </c>
     </row>
@@ -18586,7 +18600,7 @@
       <c r="L442" s="4">
         <v>1</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="6">
         <v>208</v>
       </c>
     </row>
@@ -18625,7 +18639,7 @@
       <c r="L443" s="4">
         <v>11</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="6">
         <v>271</v>
       </c>
     </row>
@@ -18666,7 +18680,7 @@
       <c r="L444" s="4">
         <v>7</v>
       </c>
-      <c r="M444" s="5">
+      <c r="M444" s="6">
         <v>242</v>
       </c>
     </row>
@@ -18705,7 +18719,7 @@
       <c r="L445" s="4">
         <v>22</v>
       </c>
-      <c r="M445" s="5">
+      <c r="M445" s="6">
         <v>397</v>
       </c>
     </row>
@@ -18713,39 +18727,39 @@
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="5">
-        <v>2.1869999999999998</v>
+        <v>2187</v>
       </c>
       <c r="D446" s="5">
-        <v>1.843</v>
+        <v>1843</v>
       </c>
       <c r="E446" s="5">
-        <v>2.9079999999999999</v>
-      </c>
-      <c r="F446" s="5">
+        <v>2908</v>
+      </c>
+      <c r="F446" s="6">
         <v>946</v>
       </c>
       <c r="G446" s="5">
-        <v>3.351</v>
+        <v>3351</v>
       </c>
       <c r="H446" s="5">
-        <v>1.986</v>
-      </c>
-      <c r="I446" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I446" s="6">
         <v>994</v>
       </c>
-      <c r="J446" s="5">
+      <c r="J446" s="6">
         <v>135</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="6">
         <v>2</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="6">
         <v>315</v>
       </c>
       <c r="M446" s="5">
-        <v>14.667</v>
+        <v>14667</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -18824,7 +18838,7 @@
       <c r="L448" s="4">
         <v>7</v>
       </c>
-      <c r="M448" s="5">
+      <c r="M448" s="6">
         <v>739</v>
       </c>
     </row>
@@ -18863,7 +18877,7 @@
       <c r="L449" s="4">
         <v>1</v>
       </c>
-      <c r="M449" s="5">
+      <c r="M449" s="6">
         <v>677</v>
       </c>
     </row>
@@ -18904,7 +18918,7 @@
       <c r="L450" s="4">
         <v>2</v>
       </c>
-      <c r="M450" s="5">
+      <c r="M450" s="6">
         <v>520</v>
       </c>
     </row>
@@ -18943,7 +18957,7 @@
       <c r="L451" s="4">
         <v>1</v>
       </c>
-      <c r="M451" s="5">
+      <c r="M451" s="6">
         <v>432</v>
       </c>
     </row>
@@ -18984,7 +18998,7 @@
       <c r="L452" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M452" s="5">
+      <c r="M452" s="6">
         <v>419</v>
       </c>
     </row>
@@ -19023,7 +19037,7 @@
       <c r="L453" s="4">
         <v>4</v>
       </c>
-      <c r="M453" s="5">
+      <c r="M453" s="6">
         <v>371</v>
       </c>
     </row>
@@ -19064,7 +19078,7 @@
       <c r="L454" s="4">
         <v>1</v>
       </c>
-      <c r="M454" s="5">
+      <c r="M454" s="6">
         <v>365</v>
       </c>
     </row>
@@ -19103,7 +19117,7 @@
       <c r="L455" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M455" s="5">
+      <c r="M455" s="6">
         <v>300</v>
       </c>
     </row>
@@ -19144,7 +19158,7 @@
       <c r="L456" s="4">
         <v>1</v>
       </c>
-      <c r="M456" s="5">
+      <c r="M456" s="6">
         <v>373</v>
       </c>
     </row>
@@ -19183,7 +19197,7 @@
       <c r="L457" s="4">
         <v>1</v>
       </c>
-      <c r="M457" s="5">
+      <c r="M457" s="6">
         <v>350</v>
       </c>
     </row>
@@ -19224,7 +19238,7 @@
       <c r="L458" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M458" s="5">
+      <c r="M458" s="6">
         <v>417</v>
       </c>
     </row>
@@ -19263,7 +19277,7 @@
       <c r="L459" s="4">
         <v>2</v>
       </c>
-      <c r="M459" s="5">
+      <c r="M459" s="6">
         <v>381</v>
       </c>
     </row>
@@ -19304,7 +19318,7 @@
       <c r="L460" s="4">
         <v>3</v>
       </c>
-      <c r="M460" s="5">
+      <c r="M460" s="6">
         <v>433</v>
       </c>
     </row>
@@ -19343,7 +19357,7 @@
       <c r="L461" s="4">
         <v>4</v>
       </c>
-      <c r="M461" s="5">
+      <c r="M461" s="6">
         <v>523</v>
       </c>
     </row>
@@ -19384,7 +19398,7 @@
       <c r="L462" s="4">
         <v>3</v>
       </c>
-      <c r="M462" s="5">
+      <c r="M462" s="6">
         <v>541</v>
       </c>
     </row>
@@ -19423,7 +19437,7 @@
       <c r="L463" s="4">
         <v>5</v>
       </c>
-      <c r="M463" s="5">
+      <c r="M463" s="6">
         <v>591</v>
       </c>
     </row>
@@ -19464,7 +19478,7 @@
       <c r="L464" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M464" s="5">
+      <c r="M464" s="6">
         <v>561</v>
       </c>
     </row>
@@ -19503,7 +19517,7 @@
       <c r="L465" s="4">
         <v>3</v>
       </c>
-      <c r="M465" s="5">
+      <c r="M465" s="6">
         <v>641</v>
       </c>
     </row>
@@ -19544,7 +19558,7 @@
       <c r="L466" s="4">
         <v>5</v>
       </c>
-      <c r="M466" s="5">
+      <c r="M466" s="6">
         <v>524</v>
       </c>
     </row>
@@ -19583,7 +19597,7 @@
       <c r="L467" s="4">
         <v>2</v>
       </c>
-      <c r="M467" s="5">
+      <c r="M467" s="6">
         <v>631</v>
       </c>
     </row>
@@ -19624,7 +19638,7 @@
       <c r="L468" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M468" s="5">
+      <c r="M468" s="6">
         <v>413</v>
       </c>
     </row>
@@ -19663,7 +19677,7 @@
       <c r="L469" s="4">
         <v>3</v>
       </c>
-      <c r="M469" s="5">
+      <c r="M469" s="6">
         <v>477</v>
       </c>
     </row>
@@ -19704,7 +19718,7 @@
       <c r="L470" s="4">
         <v>3</v>
       </c>
-      <c r="M470" s="5">
+      <c r="M470" s="6">
         <v>702</v>
       </c>
     </row>
@@ -19743,7 +19757,7 @@
       <c r="L471" s="4">
         <v>12</v>
       </c>
-      <c r="M471" s="5">
+      <c r="M471" s="6">
         <v>912</v>
       </c>
     </row>
@@ -19751,39 +19765,39 @@
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B472" s="6"/>
-      <c r="C472" s="5">
+      <c r="B472" s="7"/>
+      <c r="C472" s="6">
         <v>962</v>
       </c>
-      <c r="D472" s="5">
+      <c r="D472" s="6">
         <v>885</v>
       </c>
       <c r="E472" s="5">
-        <v>3.734</v>
-      </c>
-      <c r="F472" s="5">
+        <v>3734</v>
+      </c>
+      <c r="F472" s="6">
         <v>697</v>
       </c>
       <c r="G472" s="5">
-        <v>1.5189999999999999</v>
+        <v>1519</v>
       </c>
       <c r="H472" s="5">
-        <v>2.9140000000000001</v>
+        <v>2914</v>
       </c>
       <c r="I472" s="5">
-        <v>1.363</v>
-      </c>
-      <c r="J472" s="5">
+        <v>1363</v>
+      </c>
+      <c r="J472" s="6">
         <v>142</v>
       </c>
-      <c r="K472" s="5">
-        <v>14</v>
-      </c>
-      <c r="L472" s="5">
+      <c r="K472" s="6">
+        <v>14</v>
+      </c>
+      <c r="L472" s="6">
         <v>63</v>
       </c>
       <c r="M472" s="5">
-        <v>12.292999999999999</v>
+        <v>12293</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -19862,7 +19876,7 @@
       <c r="L474" s="4">
         <v>2</v>
       </c>
-      <c r="M474" s="5">
+      <c r="M474" s="6">
         <v>338</v>
       </c>
     </row>
@@ -19901,7 +19915,7 @@
       <c r="L475" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M475" s="5">
+      <c r="M475" s="6">
         <v>329</v>
       </c>
     </row>
@@ -19942,7 +19956,7 @@
       <c r="L476" s="4">
         <v>1</v>
       </c>
-      <c r="M476" s="5">
+      <c r="M476" s="6">
         <v>254</v>
       </c>
     </row>
@@ -19981,7 +19995,7 @@
       <c r="L477" s="4">
         <v>1</v>
       </c>
-      <c r="M477" s="5">
+      <c r="M477" s="6">
         <v>233</v>
       </c>
     </row>
@@ -20022,7 +20036,7 @@
       <c r="L478" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M478" s="5">
+      <c r="M478" s="6">
         <v>225</v>
       </c>
     </row>
@@ -20061,7 +20075,7 @@
       <c r="L479" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M479" s="5">
+      <c r="M479" s="6">
         <v>175</v>
       </c>
     </row>
@@ -20102,7 +20116,7 @@
       <c r="L480" s="4">
         <v>3</v>
       </c>
-      <c r="M480" s="5">
+      <c r="M480" s="6">
         <v>231</v>
       </c>
     </row>
@@ -20141,7 +20155,7 @@
       <c r="L481" s="4">
         <v>1</v>
       </c>
-      <c r="M481" s="5">
+      <c r="M481" s="6">
         <v>190</v>
       </c>
     </row>
@@ -20182,7 +20196,7 @@
       <c r="L482" s="4">
         <v>1</v>
       </c>
-      <c r="M482" s="5">
+      <c r="M482" s="6">
         <v>228</v>
       </c>
     </row>
@@ -20221,7 +20235,7 @@
       <c r="L483" s="4">
         <v>2</v>
       </c>
-      <c r="M483" s="5">
+      <c r="M483" s="6">
         <v>189</v>
       </c>
     </row>
@@ -20262,7 +20276,7 @@
       <c r="L484" s="4">
         <v>2</v>
       </c>
-      <c r="M484" s="5">
+      <c r="M484" s="6">
         <v>214</v>
       </c>
     </row>
@@ -20301,7 +20315,7 @@
       <c r="L485" s="4">
         <v>2</v>
       </c>
-      <c r="M485" s="5">
+      <c r="M485" s="6">
         <v>223</v>
       </c>
     </row>
@@ -20342,7 +20356,7 @@
       <c r="L486" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M486" s="5">
+      <c r="M486" s="6">
         <v>246</v>
       </c>
     </row>
@@ -20381,7 +20395,7 @@
       <c r="L487" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M487" s="5">
+      <c r="M487" s="6">
         <v>218</v>
       </c>
     </row>
@@ -20422,7 +20436,7 @@
       <c r="L488" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M488" s="5">
+      <c r="M488" s="6">
         <v>278</v>
       </c>
     </row>
@@ -20461,7 +20475,7 @@
       <c r="L489" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M489" s="5">
+      <c r="M489" s="6">
         <v>278</v>
       </c>
     </row>
@@ -20502,7 +20516,7 @@
       <c r="L490" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M490" s="5">
+      <c r="M490" s="6">
         <v>263</v>
       </c>
     </row>
@@ -20541,7 +20555,7 @@
       <c r="L491" s="4">
         <v>1</v>
       </c>
-      <c r="M491" s="5">
+      <c r="M491" s="6">
         <v>279</v>
       </c>
     </row>
@@ -20582,7 +20596,7 @@
       <c r="L492" s="4">
         <v>1</v>
       </c>
-      <c r="M492" s="5">
+      <c r="M492" s="6">
         <v>285</v>
       </c>
     </row>
@@ -20621,7 +20635,7 @@
       <c r="L493" s="4">
         <v>1</v>
       </c>
-      <c r="M493" s="5">
+      <c r="M493" s="6">
         <v>359</v>
       </c>
     </row>
@@ -20662,7 +20676,7 @@
       <c r="L494" s="4">
         <v>1</v>
       </c>
-      <c r="M494" s="5">
+      <c r="M494" s="6">
         <v>187</v>
       </c>
     </row>
@@ -20701,7 +20715,7 @@
       <c r="L495" s="4">
         <v>1</v>
       </c>
-      <c r="M495" s="5">
+      <c r="M495" s="6">
         <v>239</v>
       </c>
     </row>
@@ -20742,7 +20756,7 @@
       <c r="L496" s="4">
         <v>2</v>
       </c>
-      <c r="M496" s="5">
+      <c r="M496" s="6">
         <v>349</v>
       </c>
     </row>
@@ -20781,7 +20795,7 @@
       <c r="L497" s="4">
         <v>3</v>
       </c>
-      <c r="M497" s="5">
+      <c r="M497" s="6">
         <v>424</v>
       </c>
     </row>
@@ -20789,39 +20803,39 @@
       <c r="A498" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B498" s="6"/>
-      <c r="C498" s="5">
+      <c r="B498" s="7"/>
+      <c r="C498" s="6">
         <v>451</v>
       </c>
-      <c r="D498" s="5">
+      <c r="D498" s="6">
         <v>466</v>
       </c>
       <c r="E498" s="5">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="F498" s="5">
+        <v>1789</v>
+      </c>
+      <c r="F498" s="6">
         <v>412</v>
       </c>
-      <c r="G498" s="5">
+      <c r="G498" s="6">
         <v>668</v>
       </c>
       <c r="H498" s="5">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="I498" s="5">
+        <v>1565</v>
+      </c>
+      <c r="I498" s="6">
         <v>781</v>
       </c>
-      <c r="J498" s="5">
+      <c r="J498" s="6">
         <v>69</v>
       </c>
-      <c r="K498" s="5">
+      <c r="K498" s="6">
         <v>8</v>
       </c>
-      <c r="L498" s="5">
+      <c r="L498" s="6">
         <v>25</v>
       </c>
       <c r="M498" s="5">
-        <v>6.234</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="499" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -20882,14 +20896,14 @@
       <c r="F500" s="4">
         <v>2</v>
       </c>
-      <c r="G500" s="4">
-        <v>1.9059999999999999</v>
-      </c>
-      <c r="H500" s="4">
-        <v>6.577</v>
-      </c>
-      <c r="I500" s="4">
-        <v>1.149</v>
+      <c r="G500" s="9">
+        <v>1906</v>
+      </c>
+      <c r="H500" s="9">
+        <v>6577</v>
+      </c>
+      <c r="I500" s="9">
+        <v>1149</v>
       </c>
       <c r="J500" s="4">
         <v>16</v>
@@ -20901,7 +20915,7 @@
         <v>48</v>
       </c>
       <c r="M500" s="5">
-        <v>9.7579999999999991</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
@@ -20921,14 +20935,14 @@
       <c r="F501" s="4">
         <v>2</v>
       </c>
-      <c r="G501" s="4">
-        <v>1.819</v>
-      </c>
-      <c r="H501" s="4">
-        <v>6.8029999999999999</v>
-      </c>
-      <c r="I501" s="4">
-        <v>1.792</v>
+      <c r="G501" s="9">
+        <v>1819</v>
+      </c>
+      <c r="H501" s="9">
+        <v>6803</v>
+      </c>
+      <c r="I501" s="9">
+        <v>1792</v>
       </c>
       <c r="J501" s="4">
         <v>22</v>
@@ -20940,7 +20954,7 @@
         <v>17</v>
       </c>
       <c r="M501" s="5">
-        <v>10.53</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
@@ -20965,11 +20979,11 @@
       <c r="G502" s="4">
         <v>927</v>
       </c>
-      <c r="H502" s="4">
-        <v>2.6190000000000002</v>
-      </c>
-      <c r="I502" s="4">
-        <v>2.8769999999999998</v>
+      <c r="H502" s="9">
+        <v>2619</v>
+      </c>
+      <c r="I502" s="9">
+        <v>2877</v>
       </c>
       <c r="J502" s="4">
         <v>316</v>
@@ -20981,7 +20995,7 @@
         <v>19</v>
       </c>
       <c r="M502" s="5">
-        <v>6.851</v>
+        <v>6851</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
@@ -21001,14 +21015,14 @@
       <c r="F503" s="4">
         <v>80</v>
       </c>
-      <c r="G503" s="4">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="H503" s="4">
-        <v>1.7470000000000001</v>
-      </c>
-      <c r="I503" s="4">
-        <v>3.6429999999999998</v>
+      <c r="G503" s="9">
+        <v>1314</v>
+      </c>
+      <c r="H503" s="9">
+        <v>1747</v>
+      </c>
+      <c r="I503" s="9">
+        <v>3643</v>
       </c>
       <c r="J503" s="4">
         <v>507</v>
@@ -21020,7 +21034,7 @@
         <v>19</v>
       </c>
       <c r="M503" s="5">
-        <v>7.5990000000000002</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.25">
@@ -21045,11 +21059,11 @@
       <c r="G504" s="4">
         <v>508</v>
       </c>
-      <c r="H504" s="4">
-        <v>2.3530000000000002</v>
-      </c>
-      <c r="I504" s="4">
-        <v>2.6629999999999998</v>
+      <c r="H504" s="9">
+        <v>2353</v>
+      </c>
+      <c r="I504" s="9">
+        <v>2663</v>
       </c>
       <c r="J504" s="4">
         <v>510</v>
@@ -21061,7 +21075,7 @@
         <v>19</v>
       </c>
       <c r="M504" s="5">
-        <v>6.6420000000000003</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
@@ -21078,17 +21092,17 @@
       <c r="E505" s="4">
         <v>179</v>
       </c>
-      <c r="F505" s="4">
-        <v>1.0740000000000001</v>
+      <c r="F505" s="9">
+        <v>1074</v>
       </c>
       <c r="G505" s="4">
         <v>553</v>
       </c>
-      <c r="H505" s="4">
-        <v>1.607</v>
-      </c>
-      <c r="I505" s="4">
-        <v>2.5880000000000001</v>
+      <c r="H505" s="9">
+        <v>1607</v>
+      </c>
+      <c r="I505" s="9">
+        <v>2588</v>
       </c>
       <c r="J505" s="4">
         <v>583</v>
@@ -21100,7 +21114,7 @@
         <v>50</v>
       </c>
       <c r="M505" s="5">
-        <v>6.9580000000000002</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
@@ -21125,11 +21139,11 @@
       <c r="G506" s="4">
         <v>473</v>
       </c>
-      <c r="H506" s="4">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="I506" s="4">
-        <v>2.12</v>
+      <c r="H506" s="9">
+        <v>2346</v>
+      </c>
+      <c r="I506" s="9">
+        <v>2120</v>
       </c>
       <c r="J506" s="4">
         <v>468</v>
@@ -21141,7 +21155,7 @@
         <v>24</v>
       </c>
       <c r="M506" s="5">
-        <v>6.5039999999999996</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
@@ -21155,8 +21169,8 @@
       <c r="D507" s="4">
         <v>133</v>
       </c>
-      <c r="E507" s="4">
-        <v>1.4279999999999999</v>
+      <c r="E507" s="9">
+        <v>1428</v>
       </c>
       <c r="F507" s="4">
         <v>752</v>
@@ -21164,11 +21178,11 @@
       <c r="G507" s="4">
         <v>602</v>
       </c>
-      <c r="H507" s="4">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="I507" s="4">
-        <v>1.56</v>
+      <c r="H507" s="9">
+        <v>1537</v>
+      </c>
+      <c r="I507" s="9">
+        <v>1560</v>
       </c>
       <c r="J507" s="4">
         <v>322</v>
@@ -21180,7 +21194,7 @@
         <v>42</v>
       </c>
       <c r="M507" s="5">
-        <v>6.5570000000000004</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
@@ -21205,11 +21219,11 @@
       <c r="G508" s="4">
         <v>781</v>
       </c>
-      <c r="H508" s="4">
-        <v>2.427</v>
-      </c>
-      <c r="I508" s="4">
-        <v>1.6080000000000001</v>
+      <c r="H508" s="9">
+        <v>2427</v>
+      </c>
+      <c r="I508" s="9">
+        <v>1608</v>
       </c>
       <c r="J508" s="4">
         <v>374</v>
@@ -21221,7 +21235,7 @@
         <v>20</v>
       </c>
       <c r="M508" s="5">
-        <v>6.2919999999999998</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
@@ -21235,8 +21249,8 @@
       <c r="D509" s="4">
         <v>111</v>
       </c>
-      <c r="E509" s="4">
-        <v>1.8660000000000001</v>
+      <c r="E509" s="9">
+        <v>1866</v>
       </c>
       <c r="F509" s="4">
         <v>594</v>
@@ -21244,11 +21258,11 @@
       <c r="G509" s="4">
         <v>882</v>
       </c>
-      <c r="H509" s="4">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="I509" s="4">
-        <v>1.0189999999999999</v>
+      <c r="H509" s="9">
+        <v>1416</v>
+      </c>
+      <c r="I509" s="9">
+        <v>1019</v>
       </c>
       <c r="J509" s="4">
         <v>234</v>
@@ -21260,7 +21274,7 @@
         <v>27</v>
       </c>
       <c r="M509" s="5">
-        <v>6.3280000000000003</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
@@ -21285,11 +21299,11 @@
       <c r="G510" s="4">
         <v>813</v>
       </c>
-      <c r="H510" s="4">
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="I510" s="4">
-        <v>1.2529999999999999</v>
+      <c r="H510" s="9">
+        <v>1914</v>
+      </c>
+      <c r="I510" s="9">
+        <v>1253</v>
       </c>
       <c r="J510" s="4">
         <v>230</v>
@@ -21301,7 +21315,7 @@
         <v>25</v>
       </c>
       <c r="M510" s="5">
-        <v>5.4880000000000004</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
@@ -21315,8 +21329,8 @@
       <c r="D511" s="4">
         <v>112</v>
       </c>
-      <c r="E511" s="4">
-        <v>2.0099999999999998</v>
+      <c r="E511" s="9">
+        <v>2010</v>
       </c>
       <c r="F511" s="4">
         <v>573</v>
@@ -21324,8 +21338,8 @@
       <c r="G511" s="4">
         <v>781</v>
       </c>
-      <c r="H511" s="4">
-        <v>1.19</v>
+      <c r="H511" s="9">
+        <v>1190</v>
       </c>
       <c r="I511" s="4">
         <v>632</v>
@@ -21340,7 +21354,7 @@
         <v>23</v>
       </c>
       <c r="M511" s="5">
-        <v>5.6</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
@@ -21365,11 +21379,11 @@
       <c r="G512" s="4">
         <v>919</v>
       </c>
-      <c r="H512" s="4">
-        <v>1.528</v>
-      </c>
-      <c r="I512" s="4">
-        <v>1.024</v>
+      <c r="H512" s="9">
+        <v>1528</v>
+      </c>
+      <c r="I512" s="9">
+        <v>1024</v>
       </c>
       <c r="J512" s="4">
         <v>143</v>
@@ -21381,7 +21395,7 @@
         <v>19</v>
       </c>
       <c r="M512" s="5">
-        <v>4.8579999999999997</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
@@ -21395,8 +21409,8 @@
       <c r="D513" s="4">
         <v>151</v>
       </c>
-      <c r="E513" s="4">
-        <v>2.0129999999999999</v>
+      <c r="E513" s="9">
+        <v>2013</v>
       </c>
       <c r="F513" s="4">
         <v>517</v>
@@ -21420,7 +21434,7 @@
         <v>43</v>
       </c>
       <c r="M513" s="5">
-        <v>4.8339999999999996</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
@@ -21445,8 +21459,8 @@
       <c r="G514" s="4">
         <v>869</v>
       </c>
-      <c r="H514" s="4">
-        <v>1.228</v>
+      <c r="H514" s="9">
+        <v>1228</v>
       </c>
       <c r="I514" s="4">
         <v>748</v>
@@ -21461,7 +21475,7 @@
         <v>17</v>
       </c>
       <c r="M514" s="5">
-        <v>4.2350000000000003</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
@@ -21475,8 +21489,8 @@
       <c r="D515" s="4">
         <v>246</v>
       </c>
-      <c r="E515" s="4">
-        <v>1.9950000000000001</v>
+      <c r="E515" s="9">
+        <v>1995</v>
       </c>
       <c r="F515" s="4">
         <v>361</v>
@@ -21500,7 +21514,7 @@
         <v>34</v>
       </c>
       <c r="M515" s="5">
-        <v>4.1509999999999998</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
@@ -21541,7 +21555,7 @@
         <v>25</v>
       </c>
       <c r="M516" s="5">
-        <v>3.2629999999999999</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
@@ -21555,8 +21569,8 @@
       <c r="D517" s="4">
         <v>303</v>
       </c>
-      <c r="E517" s="4">
-        <v>1.591</v>
+      <c r="E517" s="9">
+        <v>1591</v>
       </c>
       <c r="F517" s="4">
         <v>156</v>
@@ -21580,7 +21594,7 @@
         <v>37</v>
       </c>
       <c r="M517" s="5">
-        <v>3.1819999999999999</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
@@ -21621,7 +21635,7 @@
         <v>13</v>
       </c>
       <c r="M518" s="5">
-        <v>2.3109999999999999</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
@@ -21635,8 +21649,8 @@
       <c r="D519" s="4">
         <v>358</v>
       </c>
-      <c r="E519" s="4">
-        <v>1.319</v>
+      <c r="E519" s="9">
+        <v>1319</v>
       </c>
       <c r="F519" s="4">
         <v>54</v>
@@ -21660,7 +21674,7 @@
         <v>32</v>
       </c>
       <c r="M519" s="5">
-        <v>2.6339999999999999</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
@@ -21701,7 +21715,7 @@
         <v>16</v>
       </c>
       <c r="M520" s="5">
-        <v>1.5069999999999999</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
@@ -21740,7 +21754,7 @@
         <v>36</v>
       </c>
       <c r="M521" s="5">
-        <v>1.778</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
@@ -21781,7 +21795,7 @@
         <v>28</v>
       </c>
       <c r="M522" s="5">
-        <v>1.764</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
@@ -21789,8 +21803,8 @@
       <c r="B523" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C523" s="4">
-        <v>1.087</v>
+      <c r="C523" s="9">
+        <v>1087</v>
       </c>
       <c r="D523" s="4">
         <v>535</v>
@@ -21820,55 +21834,60 @@
         <v>91</v>
       </c>
       <c r="M523" s="5">
-        <v>2.8410000000000002</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B524" s="6"/>
+      <c r="B524" s="7"/>
       <c r="C524" s="5">
-        <v>2.9849999999999999</v>
+        <v>2985</v>
       </c>
       <c r="D524" s="5">
-        <v>3.0129999999999999</v>
+        <v>3013</v>
       </c>
       <c r="E524" s="5">
-        <v>19.207999999999998</v>
+        <v>19208</v>
       </c>
       <c r="F524" s="5">
-        <v>8.39</v>
+        <v>8390</v>
       </c>
       <c r="G524" s="5">
-        <v>16.172999999999998</v>
+        <v>16173</v>
       </c>
       <c r="H524" s="5">
-        <v>39.375</v>
+        <v>39375</v>
       </c>
       <c r="I524" s="5">
-        <v>26.774999999999999</v>
+        <v>26775</v>
       </c>
       <c r="J524" s="5">
-        <v>4.1539999999999999</v>
+        <v>4154</v>
       </c>
       <c r="K524" s="5">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="L524" s="5">
+        <v>1668</v>
+      </c>
+      <c r="L524" s="6">
         <v>724</v>
       </c>
       <c r="M524" s="5">
-        <v>122.465</v>
+        <v>122465</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A525" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A526" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A473:B473"/>
     <mergeCell ref="A499:B499"/>
     <mergeCell ref="A4:M4"/>
@@ -21885,6 +21904,11 @@
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
